--- a/siteMap.xlsx
+++ b/siteMap.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmak\Desktop\MYSET\NPN_pages\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF308A88-3F8E-44F8-8623-5055A1B86D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +24,27 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>style.css</t>
+  </si>
+  <si>
+    <t>script.js</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,7 +73,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +350,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/siteMap.xlsx
+++ b/siteMap.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmak\Desktop\MYSET\NPN_pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF308A88-3F8E-44F8-8623-5055A1B86D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF831C-5182-433F-A3B7-D914B9CF153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概要" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>index.html</t>
   </si>
@@ -34,6 +35,21 @@
   </si>
   <si>
     <t>script.js</t>
+  </si>
+  <si>
+    <t>メインHTML</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>subsub</t>
+  </si>
+  <si>
+    <t>全体JS</t>
   </si>
 </sst>
 </file>
@@ -49,12 +65,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,8 +103,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -350,27 +390,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4FFB64-3B49-4556-8F52-76EC9A410B92}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEAB07-2DDD-4DF0-9449-AD88F89E45CE}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="12" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/siteMap.xlsx
+++ b/siteMap.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmak\Desktop\MYSET\NPN_pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CF831C-5182-433F-A3B7-D914B9CF153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A826E8D-ED7A-479B-830C-9B2D59BB248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="3825" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="概要" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="あ" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>index.html</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>全体JS</t>
+  </si>
+  <si>
+    <t>全体CSS</t>
+  </si>
+  <si>
+    <t>フォルダ</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>md/txt</t>
   </si>
 </sst>
 </file>
@@ -107,10 +125,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -390,178 +408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4FFB64-3B49-4556-8F52-76EC9A410B92}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEAB07-2DDD-4DF0-9449-AD88F89E45CE}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection sqref="A1:G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEAB07-2DDD-4DF0-9449-AD88F89E45CE}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +421,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -584,57 +435,109 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="F10" s="2"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E81DC6B-A2B6-4646-8D04-07101EE00A7B}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/siteMap.xlsx
+++ b/siteMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmak\Desktop\MYSET\NPN_pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A826E8D-ED7A-479B-830C-9B2D59BB248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB838A4E-2330-40FD-9D23-134F8E823A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="3825" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15630" yWindow="4845" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="あ" sheetId="3" r:id="rId1"/>
@@ -83,7 +83,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +108,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -121,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -129,6 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -509,13 +516,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">

--- a/siteMap.xlsx
+++ b/siteMap.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmak\Desktop\MYSET\NPN_pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB838A4E-2330-40FD-9D23-134F8E823A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19862AC-998F-4F79-996A-1EAA9D264865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="4845" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13665" yWindow="5055" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="あ" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="概要" sheetId="3" r:id="rId1"/>
+    <sheet name="色分け" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>index.html</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>md/txt</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>about.html</t>
+  </si>
+  <si>
+    <t>メンバー紹介</t>
   </si>
 </sst>
 </file>
@@ -83,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +123,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,21 +169,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9966FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -418,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEAB07-2DDD-4DF0-9449-AD88F89E45CE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,28 +483,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -474,30 +529,41 @@
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="F16" s="2"/>
     </row>
@@ -515,27 +581,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E81DC6B-A2B6-4646-8D04-07101EE00A7B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
     </row>

--- a/siteMap.xlsx
+++ b/siteMap.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmak\Desktop\MYSET\NPN_pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19862AC-998F-4F79-996A-1EAA9D264865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D6BD34-7CCB-4F07-AF5A-2790DBBEB38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13665" yWindow="5055" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="3030" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="概要" sheetId="3" r:id="rId1"/>
+    <sheet name="概要" sheetId="5" r:id="rId1"/>
     <sheet name="色分け" sheetId="4" r:id="rId2"/>
+    <sheet name="old_概要" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -95,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -169,15 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -186,6 +190,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -206,6 +214,4457 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{36E66C29-79FD-4821-AF32-4741B4E8400C}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F837C07A-ED9B-4321-B9E2-291086B16836}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>NPN_pages</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B0866A8D-84B9-4D92-8FAF-FC844386082E}" type="parTrans" cxnId="{0309A797-77E0-4E85-8F57-AE40C50ED8D0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2E33F603-0703-48AF-B24B-2A3997B1C7AB}" type="sibTrans" cxnId="{0309A797-77E0-4E85-8F57-AE40C50ED8D0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3A88A075-0B48-426E-BE0C-3A31BEF2CE25}" type="asst">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>index.html</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{01DB00DE-6AE3-4041-89BC-6398F53FBDDD}" type="parTrans" cxnId="{A5D5F87C-E0C9-4D27-9305-300D49819773}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln w="38100"/>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F815E8D5-3670-411F-B921-F17E46C068B9}" type="sibTrans" cxnId="{A5D5F87C-E0C9-4D27-9305-300D49819773}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D4B08955-4345-439B-B1ED-7CB991269222}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:srgbClr val="9966FF"/>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>style.css</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>全体スタイル</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ECDF5428-E87E-455A-AAAB-1DE6E1F9CA80}" type="parTrans" cxnId="{2AF907E2-EE4D-4D57-A030-33A9DA3CE8AA}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln w="38100"/>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{84D10E62-916B-45E7-9866-79E56DE02298}" type="sibTrans" cxnId="{2AF907E2-EE4D-4D57-A030-33A9DA3CE8AA}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AE91AB82-3183-478E-9FE6-37BD847D2315}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>script.js</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>全体動き</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{179DF12E-CAC2-4CB6-AD72-5090A13538CE}" type="parTrans" cxnId="{2361EAD2-3517-4815-A1C8-E8B49FF16EF8}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln w="38100"/>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2F216F1A-CA35-446F-984C-EB39AF2BCC4F}" type="sibTrans" cxnId="{2361EAD2-3517-4815-A1C8-E8B49FF16EF8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6CAD2B23-7A43-4EAF-905A-C26D48FCDDC0}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>about.html</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>メンバー紹介</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>経歴</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{98A5E093-52EB-4B0E-B068-186E2A4A2F75}" type="parTrans" cxnId="{2ED9416B-D49B-4B41-B34B-BE564203C7A2}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln w="38100"/>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EA3CDCC4-A9EB-48B6-9ACA-83493F56242D}" type="sibTrans" cxnId="{2ED9416B-D49B-4B41-B34B-BE564203C7A2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>WoWs</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{75B3EC50-D690-4D4E-BF6C-DCD2C12CFC46}" type="parTrans" cxnId="{272AB107-EFF5-4109-99D3-66B6780199F8}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln w="34925"/>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C5EE03EB-6C37-4572-A8E1-22A559A271D6}" type="sibTrans" cxnId="{272AB107-EFF5-4109-99D3-66B6780199F8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E410FF30-7CB1-4484-AA5C-909DE532A66F}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>about</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D451F2E3-36D5-4881-8463-0C867E230711}" type="parTrans" cxnId="{64D98DAD-FD21-4809-AEA0-243B808AD2AC}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln w="38100"/>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3FC57A7A-2C95-4EC0-BB88-4FB1BB31073D}" type="sibTrans" cxnId="{64D98DAD-FD21-4809-AEA0-243B808AD2AC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{87308C38-4B00-4D4C-8172-021E6519702A}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Mincraft</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DD0188B7-4C4F-4594-8E47-D81A34D7DD2F}" type="parTrans" cxnId="{E9881E18-FC82-41C4-AFA4-C124A89E9978}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln w="38100"/>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5334E6BA-F27A-4AB7-B08B-2AD04D8E09D9}" type="sibTrans" cxnId="{E9881E18-FC82-41C4-AFA4-C124A89E9978}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C73A4282-0926-432D-832B-E8699F18478C}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>wows.html</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>動画紹介</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>戦績公開</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{67F5F6DC-FA9A-48E5-89C3-8DCA7B1436DD}" type="parTrans" cxnId="{F3AAC055-6B99-46B5-AC7F-53D1787946E4}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln w="38100"/>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{43E1B63F-D44E-4405-91E3-984D4DA9FF4C}" type="sibTrans" cxnId="{F3AAC055-6B99-46B5-AC7F-53D1787946E4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{838C3B43-C87D-42F0-850D-E496D0CC9F4E}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>minecraft.html</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>ワールド紹介</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3F92798C-7F12-4E97-B337-FFB07F1E1C0F}" type="parTrans" cxnId="{CE0AEEA6-BFB6-4B18-99D8-1B8501BD60D5}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln w="38100"/>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D0A1F022-4F25-409B-A040-710069E1AAEC}" type="sibTrans" cxnId="{CE0AEEA6-BFB6-4B18-99D8-1B8501BD60D5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CFA62D35-F0A3-4FD4-AC97-83044ADC5ECB}" type="pres">
+      <dgm:prSet presAssocID="{36E66C29-79FD-4821-AF32-4741B4E8400C}" presName="mainComposite" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0BA674D5-FE3C-462B-B045-E01D359F0EA5}" type="pres">
+      <dgm:prSet presAssocID="{36E66C29-79FD-4821-AF32-4741B4E8400C}" presName="hierFlow" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{44ADB4B2-F374-407F-9945-1F27FB67F537}" type="pres">
+      <dgm:prSet presAssocID="{36E66C29-79FD-4821-AF32-4741B4E8400C}" presName="hierChild1" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{16093341-BC97-49EC-9265-19460C2ACD36}" type="pres">
+      <dgm:prSet presAssocID="{F837C07A-ED9B-4321-B9E2-291086B16836}" presName="Name14" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9420D2A7-8D31-49DF-85F8-14438B6EB063}" type="pres">
+      <dgm:prSet presAssocID="{F837C07A-ED9B-4321-B9E2-291086B16836}" presName="level1Shape" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" type="pres">
+      <dgm:prSet presAssocID="{F837C07A-ED9B-4321-B9E2-291086B16836}" presName="hierChild2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{17BFE25D-AD9C-47D0-9C11-1D97C1D23509}" type="pres">
+      <dgm:prSet presAssocID="{01DB00DE-6AE3-4041-89BC-6398F53FBDDD}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BC4DCAD4-6182-4F63-BB60-C8040B0F7E07}" type="pres">
+      <dgm:prSet presAssocID="{3A88A075-0B48-426E-BE0C-3A31BEF2CE25}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7CB894AB-551C-4B41-A670-983FFA91FFBE}" type="pres">
+      <dgm:prSet presAssocID="{3A88A075-0B48-426E-BE0C-3A31BEF2CE25}" presName="level2Shape" presStyleLbl="asst1" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C558D031-7886-4C34-A2EC-6F24699224E1}" type="pres">
+      <dgm:prSet presAssocID="{3A88A075-0B48-426E-BE0C-3A31BEF2CE25}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CD4D2C5A-5953-4D9C-94BB-B220DA92C775}" type="pres">
+      <dgm:prSet presAssocID="{ECDF5428-E87E-455A-AAAB-1DE6E1F9CA80}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E649F0C5-0974-49E0-812C-1BF305C58652}" type="pres">
+      <dgm:prSet presAssocID="{D4B08955-4345-439B-B1ED-7CB991269222}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{09FC6502-A202-4257-90AC-CCD83912E2C2}" type="pres">
+      <dgm:prSet presAssocID="{D4B08955-4345-439B-B1ED-7CB991269222}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2EEB40B8-C894-46FC-83F0-CF8AD0E2BB89}" type="pres">
+      <dgm:prSet presAssocID="{D4B08955-4345-439B-B1ED-7CB991269222}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2B676E54-791F-4EFC-A90B-DA7B70866C56}" type="pres">
+      <dgm:prSet presAssocID="{179DF12E-CAC2-4CB6-AD72-5090A13538CE}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DA2237A7-A194-48D0-BD4B-3D3A5831676F}" type="pres">
+      <dgm:prSet presAssocID="{AE91AB82-3183-478E-9FE6-37BD847D2315}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7A9FB87E-C983-4098-A771-B782BA8560F1}" type="pres">
+      <dgm:prSet presAssocID="{AE91AB82-3183-478E-9FE6-37BD847D2315}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EDB28057-F912-4316-B5F9-2D02CBADE7E0}" type="pres">
+      <dgm:prSet presAssocID="{AE91AB82-3183-478E-9FE6-37BD847D2315}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BFFFE4F4-8B00-4A81-841C-D9F6522FA8A3}" type="pres">
+      <dgm:prSet presAssocID="{D451F2E3-36D5-4881-8463-0C867E230711}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{921A76AA-4239-47EF-91BF-84AA14313B4F}" type="pres">
+      <dgm:prSet presAssocID="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0B95756B-5EBA-4049-96E4-F601A837A559}" type="pres">
+      <dgm:prSet presAssocID="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{649D6FBB-40BF-4C83-B042-6293BD1540D9}" type="pres">
+      <dgm:prSet presAssocID="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2D8909F5-226B-4BF1-BC0E-536EA92B72EC}" type="pres">
+      <dgm:prSet presAssocID="{98A5E093-52EB-4B0E-B068-186E2A4A2F75}" presName="Name19" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9F0B9A62-5F7E-425A-83C7-6A28521854D8}" type="pres">
+      <dgm:prSet presAssocID="{6CAD2B23-7A43-4EAF-905A-C26D48FCDDC0}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{96BF0344-AE1B-4646-B715-3F5E00C98C01}" type="pres">
+      <dgm:prSet presAssocID="{6CAD2B23-7A43-4EAF-905A-C26D48FCDDC0}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C3D2B967-05F4-40CD-B9CC-87C3CA5AAB79}" type="pres">
+      <dgm:prSet presAssocID="{6CAD2B23-7A43-4EAF-905A-C26D48FCDDC0}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3C25183E-014D-4E7A-9CD2-FB440C098E60}" type="pres">
+      <dgm:prSet presAssocID="{75B3EC50-D690-4D4E-BF6C-DCD2C12CFC46}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CF68BF67-02DF-49CE-A0D0-C98DD62AC25D}" type="pres">
+      <dgm:prSet presAssocID="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{24CFED8A-982C-46A4-A008-E351A3C977A3}" type="pres">
+      <dgm:prSet presAssocID="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2475EE98-4E96-48C1-8518-AF4B53A3C271}" type="pres">
+      <dgm:prSet presAssocID="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{98564D55-6DE2-4034-B263-E3965CAC6887}" type="pres">
+      <dgm:prSet presAssocID="{67F5F6DC-FA9A-48E5-89C3-8DCA7B1436DD}" presName="Name19" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C3D3AAA3-7362-42CB-BD1C-B9B452FAA801}" type="pres">
+      <dgm:prSet presAssocID="{C73A4282-0926-432D-832B-E8699F18478C}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3B11E872-1EFE-46D4-9DF0-248932B57A1A}" type="pres">
+      <dgm:prSet presAssocID="{C73A4282-0926-432D-832B-E8699F18478C}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{07467D1E-F98C-4DA2-BBA9-2244F518CEF7}" type="pres">
+      <dgm:prSet presAssocID="{C73A4282-0926-432D-832B-E8699F18478C}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5D96B59A-C17C-435E-961B-1437B61E357C}" type="pres">
+      <dgm:prSet presAssocID="{DD0188B7-4C4F-4594-8E47-D81A34D7DD2F}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{66D1416C-E103-4CF0-81BA-5DC7D20574EA}" type="pres">
+      <dgm:prSet presAssocID="{87308C38-4B00-4D4C-8172-021E6519702A}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7FB10CBF-A0F6-4C57-B1F4-C18A45A115DE}" type="pres">
+      <dgm:prSet presAssocID="{87308C38-4B00-4D4C-8172-021E6519702A}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{27932247-4151-4D3A-80E0-A4149F5FCBEB}" type="pres">
+      <dgm:prSet presAssocID="{87308C38-4B00-4D4C-8172-021E6519702A}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2D4E1B05-6DA6-4B73-A4D1-872F279B0B68}" type="pres">
+      <dgm:prSet presAssocID="{3F92798C-7F12-4E97-B337-FFB07F1E1C0F}" presName="Name19" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{676790AB-26D7-4116-9FE2-862AC9B66D96}" type="pres">
+      <dgm:prSet presAssocID="{838C3B43-C87D-42F0-850D-E496D0CC9F4E}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{83439119-651C-49BD-B1AC-BEDEEE455B71}" type="pres">
+      <dgm:prSet presAssocID="{838C3B43-C87D-42F0-850D-E496D0CC9F4E}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{861C5F15-447C-4CFC-B538-5BE2929D043E}" type="pres">
+      <dgm:prSet presAssocID="{838C3B43-C87D-42F0-850D-E496D0CC9F4E}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{369F4AA5-C997-4C7A-85EC-C670CAA2768B}" type="pres">
+      <dgm:prSet presAssocID="{36E66C29-79FD-4821-AF32-4741B4E8400C}" presName="bgShapesFlow" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{7B9E8600-39F3-405A-B963-872E8CF57CC8}" type="presOf" srcId="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" destId="{0B95756B-5EBA-4049-96E4-F601A837A559}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{272AB107-EFF5-4109-99D3-66B6780199F8}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" srcOrd="4" destOrd="0" parTransId="{75B3EC50-D690-4D4E-BF6C-DCD2C12CFC46}" sibTransId="{C5EE03EB-6C37-4572-A8E1-22A559A271D6}"/>
+    <dgm:cxn modelId="{E9881E18-FC82-41C4-AFA4-C124A89E9978}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{87308C38-4B00-4D4C-8172-021E6519702A}" srcOrd="5" destOrd="0" parTransId="{DD0188B7-4C4F-4594-8E47-D81A34D7DD2F}" sibTransId="{5334E6BA-F27A-4AB7-B08B-2AD04D8E09D9}"/>
+    <dgm:cxn modelId="{A52EDE25-CD22-4E22-8AC5-E61DE779B923}" type="presOf" srcId="{DD0188B7-4C4F-4594-8E47-D81A34D7DD2F}" destId="{5D96B59A-C17C-435E-961B-1437B61E357C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{CEB5292C-D073-44E4-81BF-CCE4EA434737}" type="presOf" srcId="{36E66C29-79FD-4821-AF32-4741B4E8400C}" destId="{CFA62D35-F0A3-4FD4-AC97-83044ADC5ECB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{BD13635C-76DC-4C9D-BF17-AEB6C10F5B09}" type="presOf" srcId="{D4B08955-4345-439B-B1ED-7CB991269222}" destId="{09FC6502-A202-4257-90AC-CCD83912E2C2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{23825A45-7AA6-4AFB-8CF1-0C2B66641FF4}" type="presOf" srcId="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" destId="{24CFED8A-982C-46A4-A008-E351A3C977A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{B6F81F47-E7A6-4000-AB53-F3E431C01C31}" type="presOf" srcId="{67F5F6DC-FA9A-48E5-89C3-8DCA7B1436DD}" destId="{98564D55-6DE2-4034-B263-E3965CAC6887}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{56335068-A280-45C2-B2B7-ADB5C5E29041}" type="presOf" srcId="{6CAD2B23-7A43-4EAF-905A-C26D48FCDDC0}" destId="{96BF0344-AE1B-4646-B715-3F5E00C98C01}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2ED9416B-D49B-4B41-B34B-BE564203C7A2}" srcId="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" destId="{6CAD2B23-7A43-4EAF-905A-C26D48FCDDC0}" srcOrd="0" destOrd="0" parTransId="{98A5E093-52EB-4B0E-B068-186E2A4A2F75}" sibTransId="{EA3CDCC4-A9EB-48B6-9ACA-83493F56242D}"/>
+    <dgm:cxn modelId="{964F2B6C-6CC1-455A-AD0A-B0E8DEBAD612}" type="presOf" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{9420D2A7-8D31-49DF-85F8-14438B6EB063}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{AF06C66D-70C6-44CF-B111-708147DD9A44}" type="presOf" srcId="{01DB00DE-6AE3-4041-89BC-6398F53FBDDD}" destId="{17BFE25D-AD9C-47D0-9C11-1D97C1D23509}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{063CAC4E-824A-4F05-A744-66A83D05F951}" type="presOf" srcId="{C73A4282-0926-432D-832B-E8699F18478C}" destId="{3B11E872-1EFE-46D4-9DF0-248932B57A1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{F3AAC055-6B99-46B5-AC7F-53D1787946E4}" srcId="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" destId="{C73A4282-0926-432D-832B-E8699F18478C}" srcOrd="0" destOrd="0" parTransId="{67F5F6DC-FA9A-48E5-89C3-8DCA7B1436DD}" sibTransId="{43E1B63F-D44E-4405-91E3-984D4DA9FF4C}"/>
+    <dgm:cxn modelId="{A5D5F87C-E0C9-4D27-9305-300D49819773}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{3A88A075-0B48-426E-BE0C-3A31BEF2CE25}" srcOrd="0" destOrd="0" parTransId="{01DB00DE-6AE3-4041-89BC-6398F53FBDDD}" sibTransId="{F815E8D5-3670-411F-B921-F17E46C068B9}"/>
+    <dgm:cxn modelId="{DEBFDB83-4346-4C67-A516-4FEE90F54825}" type="presOf" srcId="{98A5E093-52EB-4B0E-B068-186E2A4A2F75}" destId="{2D8909F5-226B-4BF1-BC0E-536EA92B72EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{7A578884-AD00-4E5F-9370-312DD2DF843D}" type="presOf" srcId="{ECDF5428-E87E-455A-AAAB-1DE6E1F9CA80}" destId="{CD4D2C5A-5953-4D9C-94BB-B220DA92C775}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{D935D587-6FB5-4B60-BD92-1EF67CDBA307}" type="presOf" srcId="{179DF12E-CAC2-4CB6-AD72-5090A13538CE}" destId="{2B676E54-791F-4EFC-A90B-DA7B70866C56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{79739D91-3D3A-4B74-834A-CACCFD575547}" type="presOf" srcId="{838C3B43-C87D-42F0-850D-E496D0CC9F4E}" destId="{83439119-651C-49BD-B1AC-BEDEEE455B71}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{0309A797-77E0-4E85-8F57-AE40C50ED8D0}" srcId="{36E66C29-79FD-4821-AF32-4741B4E8400C}" destId="{F837C07A-ED9B-4321-B9E2-291086B16836}" srcOrd="0" destOrd="0" parTransId="{B0866A8D-84B9-4D92-8FAF-FC844386082E}" sibTransId="{2E33F603-0703-48AF-B24B-2A3997B1C7AB}"/>
+    <dgm:cxn modelId="{85D7669D-5BB4-4BAC-B1FC-E893B18D6BCB}" type="presOf" srcId="{75B3EC50-D690-4D4E-BF6C-DCD2C12CFC46}" destId="{3C25183E-014D-4E7A-9CD2-FB440C098E60}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{CE0AEEA6-BFB6-4B18-99D8-1B8501BD60D5}" srcId="{87308C38-4B00-4D4C-8172-021E6519702A}" destId="{838C3B43-C87D-42F0-850D-E496D0CC9F4E}" srcOrd="0" destOrd="0" parTransId="{3F92798C-7F12-4E97-B337-FFB07F1E1C0F}" sibTransId="{D0A1F022-4F25-409B-A040-710069E1AAEC}"/>
+    <dgm:cxn modelId="{64D98DAD-FD21-4809-AEA0-243B808AD2AC}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" srcOrd="3" destOrd="0" parTransId="{D451F2E3-36D5-4881-8463-0C867E230711}" sibTransId="{3FC57A7A-2C95-4EC0-BB88-4FB1BB31073D}"/>
+    <dgm:cxn modelId="{E90BB5CB-EF2F-49BC-83E0-320A1F1E4826}" type="presOf" srcId="{87308C38-4B00-4D4C-8172-021E6519702A}" destId="{7FB10CBF-A0F6-4C57-B1F4-C18A45A115DE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{F383DDD0-1FBC-435C-BA43-4EDC0B48BA4E}" type="presOf" srcId="{3F92798C-7F12-4E97-B337-FFB07F1E1C0F}" destId="{2D4E1B05-6DA6-4B73-A4D1-872F279B0B68}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2361EAD2-3517-4815-A1C8-E8B49FF16EF8}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{AE91AB82-3183-478E-9FE6-37BD847D2315}" srcOrd="2" destOrd="0" parTransId="{179DF12E-CAC2-4CB6-AD72-5090A13538CE}" sibTransId="{2F216F1A-CA35-446F-984C-EB39AF2BCC4F}"/>
+    <dgm:cxn modelId="{1AC607D9-60EA-4C44-B66B-3042CAD668F6}" type="presOf" srcId="{3A88A075-0B48-426E-BE0C-3A31BEF2CE25}" destId="{7CB894AB-551C-4B41-A670-983FFA91FFBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{0890BCDB-1E38-4C00-822E-74ACA28DE8C9}" type="presOf" srcId="{D451F2E3-36D5-4881-8463-0C867E230711}" destId="{BFFFE4F4-8B00-4A81-841C-D9F6522FA8A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2AF907E2-EE4D-4D57-A030-33A9DA3CE8AA}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{D4B08955-4345-439B-B1ED-7CB991269222}" srcOrd="1" destOrd="0" parTransId="{ECDF5428-E87E-455A-AAAB-1DE6E1F9CA80}" sibTransId="{84D10E62-916B-45E7-9866-79E56DE02298}"/>
+    <dgm:cxn modelId="{831C6BEE-515C-4131-8B93-3B368317EB36}" type="presOf" srcId="{AE91AB82-3183-478E-9FE6-37BD847D2315}" destId="{7A9FB87E-C983-4098-A771-B782BA8560F1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{405D3EBF-DE63-453F-BA2F-91FD6AC2402D}" type="presParOf" srcId="{CFA62D35-F0A3-4FD4-AC97-83044ADC5ECB}" destId="{0BA674D5-FE3C-462B-B045-E01D359F0EA5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{4B97FAE9-9925-4D05-B299-28C6F4A41D49}" type="presParOf" srcId="{0BA674D5-FE3C-462B-B045-E01D359F0EA5}" destId="{44ADB4B2-F374-407F-9945-1F27FB67F537}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{95D89F6A-25E6-4CBB-AF21-113DE42A28B2}" type="presParOf" srcId="{44ADB4B2-F374-407F-9945-1F27FB67F537}" destId="{16093341-BC97-49EC-9265-19460C2ACD36}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{D805F708-E67E-45BB-A9D3-783D0F40C806}" type="presParOf" srcId="{16093341-BC97-49EC-9265-19460C2ACD36}" destId="{9420D2A7-8D31-49DF-85F8-14438B6EB063}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{57201B71-F61B-4E5B-A9EE-BAF91FCF93BB}" type="presParOf" srcId="{16093341-BC97-49EC-9265-19460C2ACD36}" destId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{C58B5E33-0D0B-41A9-A9A1-6DBFE0A23B12}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{17BFE25D-AD9C-47D0-9C11-1D97C1D23509}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2D300B38-C912-405E-A89B-A4B6B0CB9207}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{BC4DCAD4-6182-4F63-BB60-C8040B0F7E07}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{76C4CB71-E38E-4F64-A711-33D5073499D0}" type="presParOf" srcId="{BC4DCAD4-6182-4F63-BB60-C8040B0F7E07}" destId="{7CB894AB-551C-4B41-A670-983FFA91FFBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{92E04CC8-5916-447C-8E00-587D06C92682}" type="presParOf" srcId="{BC4DCAD4-6182-4F63-BB60-C8040B0F7E07}" destId="{C558D031-7886-4C34-A2EC-6F24699224E1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{6AF0F18B-75EF-4507-94EF-705072159EF7}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{CD4D2C5A-5953-4D9C-94BB-B220DA92C775}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{B787161E-3055-44F2-BDB6-995D95FDE2AF}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{E649F0C5-0974-49E0-812C-1BF305C58652}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{0B2B42D2-7C60-4D1F-B945-5A74267F7FD2}" type="presParOf" srcId="{E649F0C5-0974-49E0-812C-1BF305C58652}" destId="{09FC6502-A202-4257-90AC-CCD83912E2C2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{8E471DC6-989F-491A-B739-0E89E6E54F09}" type="presParOf" srcId="{E649F0C5-0974-49E0-812C-1BF305C58652}" destId="{2EEB40B8-C894-46FC-83F0-CF8AD0E2BB89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{391BBF02-2116-4DE4-9462-9BE57AA42524}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{2B676E54-791F-4EFC-A90B-DA7B70866C56}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{4335CE46-5082-406A-8EC0-E8A006354DD3}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{DA2237A7-A194-48D0-BD4B-3D3A5831676F}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{E71F8A2B-8317-4A94-A11B-F7D697E6FACF}" type="presParOf" srcId="{DA2237A7-A194-48D0-BD4B-3D3A5831676F}" destId="{7A9FB87E-C983-4098-A771-B782BA8560F1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{31C3EE02-0231-4A91-9087-672100A6335A}" type="presParOf" srcId="{DA2237A7-A194-48D0-BD4B-3D3A5831676F}" destId="{EDB28057-F912-4316-B5F9-2D02CBADE7E0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{80664405-04E4-4294-A0AC-717D208DB32A}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{BFFFE4F4-8B00-4A81-841C-D9F6522FA8A3}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{EBBF6AC8-8620-4166-8F0C-484E1DB03BCF}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{921A76AA-4239-47EF-91BF-84AA14313B4F}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{390DA742-8321-4BD9-9BA3-892E2126CEEA}" type="presParOf" srcId="{921A76AA-4239-47EF-91BF-84AA14313B4F}" destId="{0B95756B-5EBA-4049-96E4-F601A837A559}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{FD857653-AD75-4E2D-A549-67DEEBC6107E}" type="presParOf" srcId="{921A76AA-4239-47EF-91BF-84AA14313B4F}" destId="{649D6FBB-40BF-4C83-B042-6293BD1540D9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{4C8A179F-B82F-4DBA-A32D-FB3735707D6E}" type="presParOf" srcId="{649D6FBB-40BF-4C83-B042-6293BD1540D9}" destId="{2D8909F5-226B-4BF1-BC0E-536EA92B72EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{7399E684-42AD-4255-B43E-ABAF83E22AA2}" type="presParOf" srcId="{649D6FBB-40BF-4C83-B042-6293BD1540D9}" destId="{9F0B9A62-5F7E-425A-83C7-6A28521854D8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{13844535-F8ED-4A21-8251-4F5089B39748}" type="presParOf" srcId="{9F0B9A62-5F7E-425A-83C7-6A28521854D8}" destId="{96BF0344-AE1B-4646-B715-3F5E00C98C01}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{971C8FD8-9801-407E-80AB-A69BB03A6C0D}" type="presParOf" srcId="{9F0B9A62-5F7E-425A-83C7-6A28521854D8}" destId="{C3D2B967-05F4-40CD-B9CC-87C3CA5AAB79}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{8ED7BF22-01BF-4A22-BB15-55DEFE2EFA83}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{3C25183E-014D-4E7A-9CD2-FB440C098E60}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{535908E4-A46F-407C-94B2-591D03050BA6}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{CF68BF67-02DF-49CE-A0D0-C98DD62AC25D}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{38E84DDF-4B40-40C6-ACD6-908054304955}" type="presParOf" srcId="{CF68BF67-02DF-49CE-A0D0-C98DD62AC25D}" destId="{24CFED8A-982C-46A4-A008-E351A3C977A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{13EF38A9-43F4-4E0F-8D9D-DF009FC21B82}" type="presParOf" srcId="{CF68BF67-02DF-49CE-A0D0-C98DD62AC25D}" destId="{2475EE98-4E96-48C1-8518-AF4B53A3C271}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{57003CFF-FD32-4756-9D13-047D186CD939}" type="presParOf" srcId="{2475EE98-4E96-48C1-8518-AF4B53A3C271}" destId="{98564D55-6DE2-4034-B263-E3965CAC6887}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{A3018EC8-876B-43CD-845B-2960D10A5C5D}" type="presParOf" srcId="{2475EE98-4E96-48C1-8518-AF4B53A3C271}" destId="{C3D3AAA3-7362-42CB-BD1C-B9B452FAA801}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{1712E458-67D9-48F1-89A7-A1C01E7D899C}" type="presParOf" srcId="{C3D3AAA3-7362-42CB-BD1C-B9B452FAA801}" destId="{3B11E872-1EFE-46D4-9DF0-248932B57A1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{431CE57A-8745-4F2B-AE6D-C00A25ACAF73}" type="presParOf" srcId="{C3D3AAA3-7362-42CB-BD1C-B9B452FAA801}" destId="{07467D1E-F98C-4DA2-BBA9-2244F518CEF7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{D724B313-56E3-4FDA-A2E6-72C197190A6A}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{5D96B59A-C17C-435E-961B-1437B61E357C}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{228B663C-738E-4F88-AF01-8ADA67B6D019}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{66D1416C-E103-4CF0-81BA-5DC7D20574EA}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{C9261461-C60F-4441-B416-EB1AA0EFACB5}" type="presParOf" srcId="{66D1416C-E103-4CF0-81BA-5DC7D20574EA}" destId="{7FB10CBF-A0F6-4C57-B1F4-C18A45A115DE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{D1B33755-E837-48A1-83CD-4F8C1C62202F}" type="presParOf" srcId="{66D1416C-E103-4CF0-81BA-5DC7D20574EA}" destId="{27932247-4151-4D3A-80E0-A4149F5FCBEB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{775FA127-2960-442A-B6D0-C371C7C3DB60}" type="presParOf" srcId="{27932247-4151-4D3A-80E0-A4149F5FCBEB}" destId="{2D4E1B05-6DA6-4B73-A4D1-872F279B0B68}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{16B36397-B001-47D0-82CF-785F6AD77E93}" type="presParOf" srcId="{27932247-4151-4D3A-80E0-A4149F5FCBEB}" destId="{676790AB-26D7-4116-9FE2-862AC9B66D96}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{F3874485-04EC-44D4-8A0B-B8EFCBD2D590}" type="presParOf" srcId="{676790AB-26D7-4116-9FE2-862AC9B66D96}" destId="{83439119-651C-49BD-B1AC-BEDEEE455B71}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2F9489F0-A703-4279-92F9-353894E28800}" type="presParOf" srcId="{676790AB-26D7-4116-9FE2-862AC9B66D96}" destId="{861C5F15-447C-4CFC-B538-5BE2929D043E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{B7AEEFA6-0EF3-4CB7-B15F-69C60F77E8CF}" type="presParOf" srcId="{CFA62D35-F0A3-4FD4-AC97-83044ADC5ECB}" destId="{369F4AA5-C997-4C7A-85EC-C670CAA2768B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+    <a:ext uri="{C62137D5-CB1D-491B-B009-E17868A290BF}">
+      <dgm14:recolorImg xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" val="1"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{9420D2A7-8D31-49DF-85F8-14438B6EB063}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4544548" y="1577327"/>
+          <a:ext cx="1397928" cy="931952"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>NPN_pages</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4571844" y="1604623"/>
+        <a:ext cx="1343336" cy="877360"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{17BFE25D-AD9C-47D0-9C11-1D97C1D23509}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="700244" y="2509280"/>
+          <a:ext cx="4543268" cy="372780"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="4543268" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="4543268" y="186390"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="186390"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="372780"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{7CB894AB-551C-4B41-A670-983FFA91FFBE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1280" y="2882061"/>
+          <a:ext cx="1397928" cy="931952"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>index.html</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="28576" y="2909357"/>
+        <a:ext cx="1343336" cy="877360"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CD4D2C5A-5953-4D9C-94BB-B220DA92C775}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2517551" y="2509280"/>
+          <a:ext cx="2725960" cy="372780"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="2725960" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2725960" y="186390"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="186390"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="372780"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{09FC6502-A202-4257-90AC-CCD83912E2C2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1818587" y="2882061"/>
+          <a:ext cx="1397928" cy="931952"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="9966FF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>style.css</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>全体スタイル</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1845883" y="2909357"/>
+        <a:ext cx="1343336" cy="877360"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2B676E54-791F-4EFC-A90B-DA7B70866C56}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4334858" y="2509280"/>
+          <a:ext cx="908653" cy="372780"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="908653" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="908653" y="186390"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="186390"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="372780"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{7A9FB87E-C983-4098-A771-B782BA8560F1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3635894" y="2882061"/>
+          <a:ext cx="1397928" cy="931952"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>script.js</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>全体動き</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3663190" y="2909357"/>
+        <a:ext cx="1343336" cy="877360"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BFFFE4F4-8B00-4A81-841C-D9F6522FA8A3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5243512" y="2509280"/>
+          <a:ext cx="908653" cy="372780"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="186390"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="908653" y="186390"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="908653" y="372780"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{0B95756B-5EBA-4049-96E4-F601A837A559}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5453201" y="2882061"/>
+          <a:ext cx="1397928" cy="931952"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>about</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5480497" y="2909357"/>
+        <a:ext cx="1343336" cy="877360"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2D8909F5-226B-4BF1-BC0E-536EA92B72EC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6106446" y="3814013"/>
+          <a:ext cx="91440" cy="372780"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="372780"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{96BF0344-AE1B-4646-B715-3F5E00C98C01}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5453201" y="4186794"/>
+          <a:ext cx="1397928" cy="931952"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>about.html</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>メンバー紹介</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>経歴</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5480497" y="4214090"/>
+        <a:ext cx="1343336" cy="877360"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3C25183E-014D-4E7A-9CD2-FB440C098E60}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5243512" y="2509280"/>
+          <a:ext cx="2725960" cy="372780"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="186390"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2725960" y="186390"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2725960" y="372780"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="34925" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{24CFED8A-982C-46A4-A008-E351A3C977A3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7270509" y="2882061"/>
+          <a:ext cx="1397928" cy="931952"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>WoWs</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7297805" y="2909357"/>
+        <a:ext cx="1343336" cy="877360"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{98564D55-6DE2-4034-B263-E3965CAC6887}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7923753" y="3814013"/>
+          <a:ext cx="91440" cy="372780"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="372780"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{3B11E872-1EFE-46D4-9DF0-248932B57A1A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7270509" y="4186794"/>
+          <a:ext cx="1397928" cy="931952"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>wows.html</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>動画紹介</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>戦績公開</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7297805" y="4214090"/>
+        <a:ext cx="1343336" cy="877360"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5D96B59A-C17C-435E-961B-1437B61E357C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5243512" y="2509280"/>
+          <a:ext cx="4543268" cy="372780"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="186390"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4543268" y="186390"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4543268" y="372780"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{7FB10CBF-A0F6-4C57-B1F4-C18A45A115DE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9087816" y="2882061"/>
+          <a:ext cx="1397928" cy="931952"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Mincraft</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9115112" y="2909357"/>
+        <a:ext cx="1343336" cy="877360"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2D4E1B05-6DA6-4B73-A4D1-872F279B0B68}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9741060" y="3814013"/>
+          <a:ext cx="91440" cy="372780"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="372780"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{83439119-651C-49BD-B1AC-BEDEEE455B71}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9087816" y="4186794"/>
+          <a:ext cx="1397928" cy="931952"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>minecraft.html</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
+            <a:t>ワールド紹介</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9115112" y="4214090"/>
+        <a:ext cx="1343336" cy="877360"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="3000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="4">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="5">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="6">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="7" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="10" srcId="0" destId="4" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="11" srcId="0" destId="5" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="12" srcId="0" destId="6" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="211"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="311"/>
+        <dgm:pt modelId="4"/>
+        <dgm:pt modelId="5"/>
+        <dgm:pt modelId="6"/>
+        <dgm:pt modelId="7"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="8" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="10" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="21" destId="211" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="31" destId="311" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="11" srcId="0" destId="4" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="12" srcId="0" destId="5" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="0" destId="6" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="0" destId="7" srcOrd="4" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="mainComposite">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:alg type="composite">
+      <dgm:param type="vertAlign" val="mid"/>
+      <dgm:param type="horzAlign" val="ctr"/>
+    </dgm:alg>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" axis="ch" ptType="node" func="cnt" op="gte" val="2">
+        <dgm:choose name="Name2">
+          <dgm:if name="Name3" func="var" arg="dir" op="equ" val="norm">
+            <dgm:constrLst>
+              <dgm:constr type="l" for="ch" forName="hierFlow" refType="w" fact="0.3"/>
+              <dgm:constr type="t" for="ch" forName="hierFlow"/>
+              <dgm:constr type="r" for="ch" forName="hierFlow" refType="w" fact="0.98"/>
+              <dgm:constr type="b" for="ch" forName="hierFlow" refType="h" fact="0.98"/>
+              <dgm:constr type="l" for="ch" forName="bgShapesFlow"/>
+              <dgm:constr type="t" for="ch" forName="bgShapesFlow"/>
+              <dgm:constr type="r" for="ch" forName="bgShapesFlow" refType="w"/>
+              <dgm:constr type="b" for="ch" forName="bgShapesFlow" refType="h"/>
+              <dgm:constr type="w" for="des" forName="level1Shape" refType="w"/>
+              <dgm:constr type="h" for="des" forName="level1Shape" refType="w" refFor="des" refForName="level1Shape" fact="0.66667"/>
+              <dgm:constr type="w" for="des" forName="level2Shape" refType="w" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="h" for="des" forName="level2Shape" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="sp" for="des" refType="h" refFor="des" refForName="level1Shape" op="equ" fact="0.4"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild1" refType="w" refFor="des" refForName="level1Shape" op="equ" fact="0.3"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+              <dgm:constr type="userA" for="des" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="userB" for="des" refType="sp" refFor="des" op="equ"/>
+              <dgm:constr type="h" for="des" forName="firstBuf" refType="h" refFor="des" refForName="level1Shape" fact="0.1"/>
+            </dgm:constrLst>
+          </dgm:if>
+          <dgm:else name="Name4">
+            <dgm:constrLst>
+              <dgm:constr type="l" for="ch" forName="hierFlow" refType="w" fact="0.02"/>
+              <dgm:constr type="t" for="ch" forName="hierFlow"/>
+              <dgm:constr type="r" for="ch" forName="hierFlow" refType="w" fact="0.7"/>
+              <dgm:constr type="b" for="ch" forName="hierFlow" refType="h" fact="0.98"/>
+              <dgm:constr type="l" for="ch" forName="bgShapesFlow"/>
+              <dgm:constr type="t" for="ch" forName="bgShapesFlow"/>
+              <dgm:constr type="r" for="ch" forName="bgShapesFlow" refType="w"/>
+              <dgm:constr type="b" for="ch" forName="bgShapesFlow" refType="h"/>
+              <dgm:constr type="w" for="des" forName="level1Shape" refType="w"/>
+              <dgm:constr type="h" for="des" forName="level1Shape" refType="w" refFor="des" refForName="level1Shape" fact="0.66667"/>
+              <dgm:constr type="w" for="des" forName="level2Shape" refType="w" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="h" for="des" forName="level2Shape" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="sp" for="des" refType="h" refFor="des" refForName="level1Shape" op="equ" fact="0.4"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild1" refType="w" refFor="des" refForName="level1Shape" op="equ" fact="0.3"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+              <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+              <dgm:constr type="userA" for="des" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+              <dgm:constr type="userB" for="des" refType="sp" refFor="des" op="equ"/>
+              <dgm:constr type="h" for="des" forName="firstBuf" refType="h" refFor="des" refForName="level1Shape" fact="0.1"/>
+            </dgm:constrLst>
+          </dgm:else>
+        </dgm:choose>
+      </dgm:if>
+      <dgm:else name="Name5">
+        <dgm:constrLst>
+          <dgm:constr type="l" for="ch" forName="hierFlow"/>
+          <dgm:constr type="t" for="ch" forName="hierFlow"/>
+          <dgm:constr type="r" for="ch" forName="hierFlow" refType="w"/>
+          <dgm:constr type="b" for="ch" forName="hierFlow" refType="h"/>
+          <dgm:constr type="l" for="ch" forName="bgShapesFlow"/>
+          <dgm:constr type="t" for="ch" forName="bgShapesFlow"/>
+          <dgm:constr type="r" for="ch" forName="bgShapesFlow" refType="w"/>
+          <dgm:constr type="b" for="ch" forName="bgShapesFlow" refType="h"/>
+          <dgm:constr type="w" for="des" forName="level1Shape" refType="w"/>
+          <dgm:constr type="h" for="des" forName="level1Shape" refType="w" refFor="des" refForName="level1Shape" fact="0.66667"/>
+          <dgm:constr type="w" for="des" forName="level2Shape" refType="w" refFor="des" refForName="level1Shape" op="equ"/>
+          <dgm:constr type="h" for="des" forName="level2Shape" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+          <dgm:constr type="sp" for="des" refType="h" refFor="des" refForName="level1Shape" op="equ" fact="0.4"/>
+          <dgm:constr type="sibSp" for="des" forName="hierChild1" refType="w" refFor="des" refForName="level1Shape" op="equ" fact="0.3"/>
+          <dgm:constr type="sibSp" for="des" forName="hierChild2" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+          <dgm:constr type="sibSp" for="des" forName="hierChild3" refType="sibSp" refFor="des" refForName="hierChild1" op="equ"/>
+          <dgm:constr type="userA" for="des" refType="h" refFor="des" refForName="level1Shape" op="equ"/>
+          <dgm:constr type="userB" for="des" refType="sp" refFor="des" op="equ"/>
+          <dgm:constr type="h" for="des" forName="firstBuf" refType="h" refFor="des" refForName="level1Shape" fact="0.1"/>
+        </dgm:constrLst>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:ruleLst/>
+    <dgm:layoutNode name="hierFlow">
+      <dgm:alg type="lin">
+        <dgm:param type="linDir" val="fromT"/>
+        <dgm:param type="nodeVertAlign" val="t"/>
+        <dgm:param type="vertAlign" val="t"/>
+        <dgm:param type="nodeHorzAlign" val="ctr"/>
+        <dgm:param type="fallback" val="2D"/>
+      </dgm:alg>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:presOf/>
+      <dgm:constrLst/>
+      <dgm:ruleLst/>
+      <dgm:choose name="Name6">
+        <dgm:if name="Name7" axis="ch" ptType="node" func="cnt" op="gte" val="2">
+          <dgm:layoutNode name="firstBuf">
+            <dgm:alg type="sp"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+          </dgm:layoutNode>
+        </dgm:if>
+        <dgm:else name="Name8"/>
+      </dgm:choose>
+      <dgm:layoutNode name="hierChild1">
+        <dgm:varLst>
+          <dgm:chPref val="1"/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+        </dgm:varLst>
+        <dgm:choose name="Name9">
+          <dgm:if name="Name10" func="var" arg="dir" op="equ" val="norm">
+            <dgm:alg type="hierChild">
+              <dgm:param type="linDir" val="fromL"/>
+              <dgm:param type="vertAlign" val="t"/>
+            </dgm:alg>
+          </dgm:if>
+          <dgm:else name="Name11">
+            <dgm:alg type="hierChild">
+              <dgm:param type="linDir" val="fromR"/>
+              <dgm:param type="vertAlign" val="t"/>
+            </dgm:alg>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:constrLst>
+          <dgm:constr type="primFontSz" for="des" ptType="node" op="equ"/>
+        </dgm:constrLst>
+        <dgm:ruleLst/>
+        <dgm:forEach name="Name12" axis="ch" cnt="3">
+          <dgm:forEach name="Name13" axis="self" ptType="node">
+            <dgm:layoutNode name="Name14">
+              <dgm:alg type="hierRoot"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+              <dgm:layoutNode name="level1Shape" styleLbl="node0">
+                <dgm:varLst>
+                  <dgm:chPref val="3"/>
+                </dgm:varLst>
+                <dgm:alg type="tx"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                  <dgm:adjLst>
+                    <dgm:adj idx="1" val="0.1"/>
+                  </dgm:adjLst>
+                </dgm:shape>
+                <dgm:presOf axis="self"/>
+                <dgm:constrLst>
+                  <dgm:constr type="primFontSz" val="65"/>
+                  <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+                  <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+                  <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+                  <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+                </dgm:constrLst>
+                <dgm:ruleLst>
+                  <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                </dgm:ruleLst>
+              </dgm:layoutNode>
+              <dgm:layoutNode name="hierChild2">
+                <dgm:choose name="Name15">
+                  <dgm:if name="Name16" func="var" arg="dir" op="equ" val="norm">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="linDir" val="fromL"/>
+                    </dgm:alg>
+                  </dgm:if>
+                  <dgm:else name="Name17">
+                    <dgm:alg type="hierChild">
+                      <dgm:param type="linDir" val="fromR"/>
+                    </dgm:alg>
+                  </dgm:else>
+                </dgm:choose>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst/>
+                <dgm:ruleLst/>
+                <dgm:forEach name="repeat" axis="ch">
+                  <dgm:forEach name="Name18" axis="self" ptType="parTrans" cnt="1">
+                    <dgm:layoutNode name="Name19">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="tCtr"/>
+                      </dgm:alg>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf axis="self"/>
+                      <dgm:constrLst>
+                        <dgm:constr type="w" val="1"/>
+                        <dgm:constr type="h" val="1"/>
+                        <dgm:constr type="begPad"/>
+                        <dgm:constr type="endPad"/>
+                      </dgm:constrLst>
+                      <dgm:ruleLst/>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                  <dgm:forEach name="Name20" axis="self" ptType="node">
+                    <dgm:layoutNode name="Name21">
+                      <dgm:alg type="hierRoot"/>
+                      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                        <dgm:adjLst/>
+                      </dgm:shape>
+                      <dgm:presOf/>
+                      <dgm:constrLst/>
+                      <dgm:ruleLst/>
+                      <dgm:layoutNode name="level2Shape">
+                        <dgm:alg type="tx"/>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                          <dgm:adjLst>
+                            <dgm:adj idx="1" val="0.1"/>
+                          </dgm:adjLst>
+                        </dgm:shape>
+                        <dgm:presOf axis="self"/>
+                        <dgm:constrLst>
+                          <dgm:constr type="primFontSz" val="65"/>
+                          <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+                          <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+                          <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+                          <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+                        </dgm:constrLst>
+                        <dgm:ruleLst>
+                          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                        </dgm:ruleLst>
+                      </dgm:layoutNode>
+                      <dgm:layoutNode name="hierChild3">
+                        <dgm:choose name="Name22">
+                          <dgm:if name="Name23" func="var" arg="dir" op="equ" val="norm">
+                            <dgm:alg type="hierChild">
+                              <dgm:param type="linDir" val="fromL"/>
+                            </dgm:alg>
+                          </dgm:if>
+                          <dgm:else name="Name24">
+                            <dgm:alg type="hierChild">
+                              <dgm:param type="linDir" val="fromR"/>
+                            </dgm:alg>
+                          </dgm:else>
+                        </dgm:choose>
+                        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                          <dgm:adjLst/>
+                        </dgm:shape>
+                        <dgm:presOf/>
+                        <dgm:constrLst/>
+                        <dgm:ruleLst/>
+                        <dgm:forEach name="Name25" ref="repeat"/>
+                      </dgm:layoutNode>
+                    </dgm:layoutNode>
+                  </dgm:forEach>
+                </dgm:forEach>
+              </dgm:layoutNode>
+            </dgm:layoutNode>
+          </dgm:forEach>
+        </dgm:forEach>
+      </dgm:layoutNode>
+    </dgm:layoutNode>
+    <dgm:layoutNode name="bgShapesFlow">
+      <dgm:alg type="lin">
+        <dgm:param type="linDir" val="fromT"/>
+        <dgm:param type="nodeVertAlign" val="t"/>
+        <dgm:param type="vertAlign" val="t"/>
+        <dgm:param type="nodeHorzAlign" val="ctr"/>
+      </dgm:alg>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:presOf/>
+      <dgm:constrLst>
+        <dgm:constr type="userB"/>
+        <dgm:constr type="w" for="ch" forName="rectComp" refType="w"/>
+        <dgm:constr type="h" for="ch" forName="rectComp" refType="h"/>
+        <dgm:constr type="w" for="des" forName="bgRect" refType="w"/>
+        <dgm:constr type="primFontSz" for="des" forName="bgRectTx" op="equ"/>
+      </dgm:constrLst>
+      <dgm:ruleLst/>
+      <dgm:forEach name="Name26" axis="ch" ptType="node" st="2">
+        <dgm:layoutNode name="rectComp">
+          <dgm:alg type="composite">
+            <dgm:param type="vertAlign" val="t"/>
+            <dgm:param type="horzAlign" val="ctr"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:choose name="Name27">
+            <dgm:if name="Name28" func="var" arg="dir" op="equ" val="norm">
+              <dgm:constrLst>
+                <dgm:constr type="userA"/>
+                <dgm:constr type="l" for="ch" forName="bgRect"/>
+                <dgm:constr type="t" for="ch" forName="bgRect"/>
+                <dgm:constr type="h" for="ch" forName="bgRect" refType="userA" fact="1.2"/>
+                <dgm:constr type="l" for="ch" forName="bgRectTx"/>
+                <dgm:constr type="t" for="ch" forName="bgRectTx"/>
+                <dgm:constr type="w" for="ch" forName="bgRectTx" refType="w" refFor="ch" refForName="bgRect" fact="0.3"/>
+                <dgm:constr type="h" for="ch" forName="bgRectTx" refType="h" refFor="ch" refForName="bgRect" op="equ"/>
+              </dgm:constrLst>
+            </dgm:if>
+            <dgm:else name="Name29">
+              <dgm:constrLst>
+                <dgm:constr type="userA"/>
+                <dgm:constr type="l" for="ch" forName="bgRect"/>
+                <dgm:constr type="t" for="ch" forName="bgRect"/>
+                <dgm:constr type="h" for="ch" forName="bgRect" refType="userA" fact="1.2"/>
+                <dgm:constr type="r" for="ch" forName="bgRectTx" refType="w"/>
+                <dgm:constr type="t" for="ch" forName="bgRectTx"/>
+                <dgm:constr type="w" for="ch" forName="bgRectTx" refType="w" refFor="ch" refForName="bgRect" fact="0.3"/>
+                <dgm:constr type="h" for="ch" forName="bgRectTx" refType="h" refFor="ch" refForName="bgRect" op="equ"/>
+              </dgm:constrLst>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="bgRect" styleLbl="bgShp">
+            <dgm:alg type="sp"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="" zOrderOff="-999">
+              <dgm:adjLst>
+                <dgm:adj idx="1" val="0.1"/>
+              </dgm:adjLst>
+            </dgm:shape>
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="bgRectTx" styleLbl="bgShp">
+            <dgm:varLst>
+              <dgm:bulletEnabled val="1"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" zOrderOff="-999" hideGeom="1">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:constrLst>
+              <dgm:constr type="primFontSz" val="65"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+        <dgm:choose name="Name30">
+          <dgm:if name="Name31" axis="self" ptType="node" func="revPos" op="gte" val="2">
+            <dgm:layoutNode name="spComp">
+              <dgm:alg type="composite">
+                <dgm:param type="vertAlign" val="t"/>
+                <dgm:param type="horzAlign" val="ctr"/>
+              </dgm:alg>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf/>
+              <dgm:constrLst>
+                <dgm:constr type="userA"/>
+                <dgm:constr type="userB"/>
+                <dgm:constr type="l" for="ch" forName="vSp"/>
+                <dgm:constr type="t" for="ch" forName="vSp"/>
+                <dgm:constr type="h" for="ch" forName="vSp" refType="userB"/>
+                <dgm:constr type="hOff" for="ch" forName="vSp" refType="userA" fact="-0.2"/>
+              </dgm:constrLst>
+              <dgm:ruleLst/>
+              <dgm:layoutNode name="vSp">
+                <dgm:alg type="sp"/>
+                <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                  <dgm:adjLst/>
+                </dgm:shape>
+                <dgm:presOf/>
+                <dgm:constrLst/>
+                <dgm:ruleLst/>
+              </dgm:layoutNode>
+            </dgm:layoutNode>
+          </dgm:if>
+          <dgm:else name="Name32"/>
+        </dgm:choose>
+      </dgm:forEach>
+    </dgm:layoutNode>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="図表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2CE96C-CA3F-2564-C48C-96937314CB0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -470,11 +4929,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4B6E4B-5676-44D6-BF0D-0F060E3564A9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E81DC6B-A2B6-4646-8D04-07101EE00A7B}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAEAB07-2DDD-4DF0-9449-AD88F89E45CE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,13 +4998,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -497,11 +5012,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -529,7 +5044,7 @@
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -539,29 +5054,29 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2"/>
@@ -575,42 +5090,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E81DC6B-A2B6-4646-8D04-07101EE00A7B}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/siteMap.xlsx
+++ b/siteMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmak\Desktop\MYSET\NPN_pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D6BD34-7CCB-4F07-AF5A-2790DBBEB38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB763A-2B6F-49C0-84ED-11D899DAF5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6120" yWindow="3030" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,10 +190,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1020,54 +1020,6 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{3A88A075-0B48-426E-BE0C-3A31BEF2CE25}" type="asst">
-      <dgm:prSet phldrT="[テキスト]"/>
-      <dgm:spPr>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </dgm:spPr>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>index.html</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{01DB00DE-6AE3-4041-89BC-6398F53FBDDD}" type="parTrans" cxnId="{A5D5F87C-E0C9-4D27-9305-300D49819773}">
-      <dgm:prSet/>
-      <dgm:spPr>
-        <a:ln w="38100"/>
-      </dgm:spPr>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{F815E8D5-3670-411F-B921-F17E46C068B9}" type="sibTrans" cxnId="{A5D5F87C-E0C9-4D27-9305-300D49819773}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
     <dgm:pt modelId="{D4B08955-4345-439B-B1ED-7CB991269222}">
       <dgm:prSet phldrT="[テキスト]"/>
       <dgm:spPr>
@@ -1475,6 +1427,220 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{CD19314A-B218-4DC1-B374-EDA2C336EB4C}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>index.html</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>aaaa</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C56CD6D3-5985-4B50-AC7E-66B40D1203E8}" type="parTrans" cxnId="{46705CE6-F180-431D-94E0-4A05BE8B27E4}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln w="38100"/>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B5D77166-F4CF-43AC-8BD0-993FE70C0158}" type="sibTrans" cxnId="{46705CE6-F180-431D-94E0-4A05BE8B27E4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5D0A028F-9D58-458A-8510-F84764DF7C78}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>COMPASS&amp;RULE.md</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>やること</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>統一する項目</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4B4234ED-4D29-4623-9D20-7F2BB7185184}" type="parTrans" cxnId="{2440C464-22B8-42CB-91CC-F22D1045B80D}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln w="38100"/>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3C86B611-B469-42E0-A27D-A39D54017093}" type="sibTrans" cxnId="{2440C464-22B8-42CB-91CC-F22D1045B80D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3529B069-B670-4F11-AE13-B9C427D2BB21}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>siteMap.xlsx</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>サイトマップ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BEC44739-4513-451A-8B81-1CE991DA6705}" type="parTrans" cxnId="{18678D5B-A9F0-4F3E-BE2C-6682E3A45BA5}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln w="38100"/>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5A6CED5C-678A-4DA6-9E37-2CBB217075EC}" type="sibTrans" cxnId="{18678D5B-A9F0-4F3E-BE2C-6682E3A45BA5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F463B3ED-D521-46C3-B018-CC9ECFD316B8}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>img</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>イメージファイル入れ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A20AC677-8680-44E5-AC83-F865BBB921B5}" type="parTrans" cxnId="{BC4E5AB6-879E-449D-A285-89DB112D136F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4C342667-8818-48DD-B39E-C77720569354}" type="sibTrans" cxnId="{BC4E5AB6-879E-449D-A285-89DB112D136F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{CFA62D35-F0A3-4FD4-AC97-83044ADC5ECB}" type="pres">
       <dgm:prSet presAssocID="{36E66C29-79FD-4821-AF32-4741B4E8400C}" presName="mainComposite" presStyleCnt="0">
         <dgm:presLayoutVars>
@@ -1517,147 +1683,195 @@
       <dgm:prSet presAssocID="{F837C07A-ED9B-4321-B9E2-291086B16836}" presName="hierChild2" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{17BFE25D-AD9C-47D0-9C11-1D97C1D23509}" type="pres">
-      <dgm:prSet presAssocID="{01DB00DE-6AE3-4041-89BC-6398F53FBDDD}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="6"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{BC4DCAD4-6182-4F63-BB60-C8040B0F7E07}" type="pres">
-      <dgm:prSet presAssocID="{3A88A075-0B48-426E-BE0C-3A31BEF2CE25}" presName="Name21" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{7CB894AB-551C-4B41-A670-983FFA91FFBE}" type="pres">
-      <dgm:prSet presAssocID="{3A88A075-0B48-426E-BE0C-3A31BEF2CE25}" presName="level2Shape" presStyleLbl="asst1" presStyleIdx="0" presStyleCnt="1"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{C558D031-7886-4C34-A2EC-6F24699224E1}" type="pres">
-      <dgm:prSet presAssocID="{3A88A075-0B48-426E-BE0C-3A31BEF2CE25}" presName="hierChild3" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{CD4D2C5A-5953-4D9C-94BB-B220DA92C775}" type="pres">
-      <dgm:prSet presAssocID="{ECDF5428-E87E-455A-AAAB-1DE6E1F9CA80}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="6"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{E649F0C5-0974-49E0-812C-1BF305C58652}" type="pres">
+    <dgm:pt modelId="{4A1059FE-615F-48DC-9E8B-A37C2B72BA5F}" type="pres">
+      <dgm:prSet presAssocID="{4B4234ED-4D29-4623-9D20-7F2BB7185184}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3D679291-E4E1-4BA2-A46B-57CF551C8C8D}" type="pres">
+      <dgm:prSet presAssocID="{5D0A028F-9D58-458A-8510-F84764DF7C78}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{94C632D3-869F-4509-ADD8-710DE8585C2C}" type="pres">
+      <dgm:prSet presAssocID="{5D0A028F-9D58-458A-8510-F84764DF7C78}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3CDF1C60-DDE8-4E31-9F4E-982B66722DE9}" type="pres">
+      <dgm:prSet presAssocID="{5D0A028F-9D58-458A-8510-F84764DF7C78}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{07949237-86A6-4157-92FA-88974E88ADC0}" type="pres">
+      <dgm:prSet presAssocID="{BEC44739-4513-451A-8B81-1CE991DA6705}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7460DBC0-5506-42AD-A935-9B3D1D964AA9}" type="pres">
+      <dgm:prSet presAssocID="{3529B069-B670-4F11-AE13-B9C427D2BB21}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{04CBC13F-BED8-4CD7-A750-385E337F76B3}" type="pres">
+      <dgm:prSet presAssocID="{3529B069-B670-4F11-AE13-B9C427D2BB21}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F79CA718-D5DB-46B8-9A73-E09E4FC340EE}" type="pres">
+      <dgm:prSet presAssocID="{3529B069-B670-4F11-AE13-B9C427D2BB21}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E7C4ED13-E054-445D-B6AD-D23670553139}" type="pres">
+      <dgm:prSet presAssocID="{C56CD6D3-5985-4B50-AC7E-66B40D1203E8}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{37D9206A-2B0F-4488-A7A1-D8ACE112EE5C}" type="pres">
+      <dgm:prSet presAssocID="{CD19314A-B218-4DC1-B374-EDA2C336EB4C}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E944ABC5-5A36-4AFF-898E-EA804A1E01E7}" type="pres">
+      <dgm:prSet presAssocID="{CD19314A-B218-4DC1-B374-EDA2C336EB4C}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{75ADF745-690C-44B4-A49D-551BF22C3F46}" type="pres">
+      <dgm:prSet presAssocID="{CD19314A-B218-4DC1-B374-EDA2C336EB4C}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B2CC4D46-D5D4-4155-BDAE-661C73E8847D}" type="pres">
+      <dgm:prSet presAssocID="{ECDF5428-E87E-455A-AAAB-1DE6E1F9CA80}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C4E37E5F-CDC9-4048-9351-DB3C814E5A6F}" type="pres">
       <dgm:prSet presAssocID="{D4B08955-4345-439B-B1ED-7CB991269222}" presName="Name21" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{09FC6502-A202-4257-90AC-CCD83912E2C2}" type="pres">
-      <dgm:prSet presAssocID="{D4B08955-4345-439B-B1ED-7CB991269222}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{2EEB40B8-C894-46FC-83F0-CF8AD0E2BB89}" type="pres">
+    <dgm:pt modelId="{29EF84F0-0E7A-4DCE-AE1C-38CA2739AE8E}" type="pres">
+      <dgm:prSet presAssocID="{D4B08955-4345-439B-B1ED-7CB991269222}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9F8F8F09-5E34-4990-8A2A-CE0DC6ACF578}" type="pres">
       <dgm:prSet presAssocID="{D4B08955-4345-439B-B1ED-7CB991269222}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{2B676E54-791F-4EFC-A90B-DA7B70866C56}" type="pres">
-      <dgm:prSet presAssocID="{179DF12E-CAC2-4CB6-AD72-5090A13538CE}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="6"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{DA2237A7-A194-48D0-BD4B-3D3A5831676F}" type="pres">
+    <dgm:pt modelId="{57796AFB-BFA4-4837-9615-44220D999A9E}" type="pres">
+      <dgm:prSet presAssocID="{179DF12E-CAC2-4CB6-AD72-5090A13538CE}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1ECE1C9A-5D52-46D9-B8EF-856814A4BC69}" type="pres">
       <dgm:prSet presAssocID="{AE91AB82-3183-478E-9FE6-37BD847D2315}" presName="Name21" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{7A9FB87E-C983-4098-A771-B782BA8560F1}" type="pres">
-      <dgm:prSet presAssocID="{AE91AB82-3183-478E-9FE6-37BD847D2315}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="5"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{EDB28057-F912-4316-B5F9-2D02CBADE7E0}" type="pres">
+    <dgm:pt modelId="{5ACE8A6A-5F66-402B-BA2A-CF054E26475D}" type="pres">
+      <dgm:prSet presAssocID="{AE91AB82-3183-478E-9FE6-37BD847D2315}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{62DB5BB1-9CF2-4196-A52E-FE0C6E3D0E86}" type="pres">
       <dgm:prSet presAssocID="{AE91AB82-3183-478E-9FE6-37BD847D2315}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{BFFFE4F4-8B00-4A81-841C-D9F6522FA8A3}" type="pres">
-      <dgm:prSet presAssocID="{D451F2E3-36D5-4881-8463-0C867E230711}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="6"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{921A76AA-4239-47EF-91BF-84AA14313B4F}" type="pres">
+    <dgm:pt modelId="{BE7706CD-5D85-4BD2-A401-2506448CA1E5}" type="pres">
+      <dgm:prSet presAssocID="{A20AC677-8680-44E5-AC83-F865BBB921B5}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0313B552-CF90-4E1C-90D3-B49AF2D01BB4}" type="pres">
+      <dgm:prSet presAssocID="{F463B3ED-D521-46C3-B018-CC9ECFD316B8}" presName="Name21" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{258B6BF5-08C3-4564-8F47-858FE7D0C326}" type="pres">
+      <dgm:prSet presAssocID="{F463B3ED-D521-46C3-B018-CC9ECFD316B8}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{00CA7B79-7603-4494-83BF-E55F9CE0F6EE}" type="pres">
+      <dgm:prSet presAssocID="{F463B3ED-D521-46C3-B018-CC9ECFD316B8}" presName="hierChild3" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7AD39E9B-F0C8-41FF-A89E-F95CDC1E05D0}" type="pres">
+      <dgm:prSet presAssocID="{D451F2E3-36D5-4881-8463-0C867E230711}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{860A8389-A874-43AA-9008-F876EF450CBB}" type="pres">
       <dgm:prSet presAssocID="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" presName="Name21" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{0B95756B-5EBA-4049-96E4-F601A837A559}" type="pres">
-      <dgm:prSet presAssocID="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{649D6FBB-40BF-4C83-B042-6293BD1540D9}" type="pres">
+    <dgm:pt modelId="{0A767DFF-7FBD-4890-89D6-C76BDBED0EBF}" type="pres">
+      <dgm:prSet presAssocID="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="6" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{030256C2-00F2-4E6A-AE10-B44FB3F77458}" type="pres">
       <dgm:prSet presAssocID="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{2D8909F5-226B-4BF1-BC0E-536EA92B72EC}" type="pres">
+    <dgm:pt modelId="{764E9688-804D-4D80-8508-DD589BE620A5}" type="pres">
       <dgm:prSet presAssocID="{98A5E093-52EB-4B0E-B068-186E2A4A2F75}" presName="Name19" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{9F0B9A62-5F7E-425A-83C7-6A28521854D8}" type="pres">
+    <dgm:pt modelId="{970AC0B4-6B73-4C25-9AD7-8DAB0BABBD2A}" type="pres">
       <dgm:prSet presAssocID="{6CAD2B23-7A43-4EAF-905A-C26D48FCDDC0}" presName="Name21" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{96BF0344-AE1B-4646-B715-3F5E00C98C01}" type="pres">
+    <dgm:pt modelId="{8CD72556-E45E-41B1-AF1C-696AB9BA7D88}" type="pres">
       <dgm:prSet presAssocID="{6CAD2B23-7A43-4EAF-905A-C26D48FCDDC0}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="3"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{C3D2B967-05F4-40CD-B9CC-87C3CA5AAB79}" type="pres">
+    <dgm:pt modelId="{2AFE0919-DEDC-46A7-8498-7351D4FA6E57}" type="pres">
       <dgm:prSet presAssocID="{6CAD2B23-7A43-4EAF-905A-C26D48FCDDC0}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{3C25183E-014D-4E7A-9CD2-FB440C098E60}" type="pres">
-      <dgm:prSet presAssocID="{75B3EC50-D690-4D4E-BF6C-DCD2C12CFC46}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="6"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{CF68BF67-02DF-49CE-A0D0-C98DD62AC25D}" type="pres">
+    <dgm:pt modelId="{3EBAC78E-EFC0-4D22-A09C-AA7E78DD79EE}" type="pres">
+      <dgm:prSet presAssocID="{75B3EC50-D690-4D4E-BF6C-DCD2C12CFC46}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2385A730-DE64-461E-8A35-1C4EA618A755}" type="pres">
       <dgm:prSet presAssocID="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" presName="Name21" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{24CFED8A-982C-46A4-A008-E351A3C977A3}" type="pres">
-      <dgm:prSet presAssocID="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{2475EE98-4E96-48C1-8518-AF4B53A3C271}" type="pres">
+    <dgm:pt modelId="{5DF33273-8273-45E9-8704-88F77A4A2847}" type="pres">
+      <dgm:prSet presAssocID="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="7" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BA148260-8CF5-4211-BBC9-2731AF913C15}" type="pres">
       <dgm:prSet presAssocID="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{98564D55-6DE2-4034-B263-E3965CAC6887}" type="pres">
+    <dgm:pt modelId="{AE575FF6-AB94-44C0-A0ED-D859815A3C44}" type="pres">
       <dgm:prSet presAssocID="{67F5F6DC-FA9A-48E5-89C3-8DCA7B1436DD}" presName="Name19" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{C3D3AAA3-7362-42CB-BD1C-B9B452FAA801}" type="pres">
+    <dgm:pt modelId="{67A58EF0-728B-4DFE-BA6E-D4D94051FDDA}" type="pres">
       <dgm:prSet presAssocID="{C73A4282-0926-432D-832B-E8699F18478C}" presName="Name21" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{3B11E872-1EFE-46D4-9DF0-248932B57A1A}" type="pres">
+    <dgm:pt modelId="{D4BD6E65-36DE-47C0-BAD9-E03BDFE1A5B9}" type="pres">
       <dgm:prSet presAssocID="{C73A4282-0926-432D-832B-E8699F18478C}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="3"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{07467D1E-F98C-4DA2-BBA9-2244F518CEF7}" type="pres">
+    <dgm:pt modelId="{1F45F9A0-DDD6-410E-8A68-2160548F58D9}" type="pres">
       <dgm:prSet presAssocID="{C73A4282-0926-432D-832B-E8699F18478C}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{5D96B59A-C17C-435E-961B-1437B61E357C}" type="pres">
-      <dgm:prSet presAssocID="{DD0188B7-4C4F-4594-8E47-D81A34D7DD2F}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="6"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{66D1416C-E103-4CF0-81BA-5DC7D20574EA}" type="pres">
+    <dgm:pt modelId="{B2065EA1-F03B-4143-8777-8E341D1CDBA8}" type="pres">
+      <dgm:prSet presAssocID="{DD0188B7-4C4F-4594-8E47-D81A34D7DD2F}" presName="Name19" presStyleLbl="parChTrans1D2" presStyleIdx="8" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4162F1F0-BE24-4673-8EC3-7AEED028B17F}" type="pres">
       <dgm:prSet presAssocID="{87308C38-4B00-4D4C-8172-021E6519702A}" presName="Name21" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{7FB10CBF-A0F6-4C57-B1F4-C18A45A115DE}" type="pres">
-      <dgm:prSet presAssocID="{87308C38-4B00-4D4C-8172-021E6519702A}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{27932247-4151-4D3A-80E0-A4149F5FCBEB}" type="pres">
+    <dgm:pt modelId="{978A5666-4D81-4B20-862A-4ECA843D6AB1}" type="pres">
+      <dgm:prSet presAssocID="{87308C38-4B00-4D4C-8172-021E6519702A}" presName="level2Shape" presStyleLbl="node2" presStyleIdx="8" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CB7D7FB4-C252-4237-9603-402F3B8ADDC1}" type="pres">
       <dgm:prSet presAssocID="{87308C38-4B00-4D4C-8172-021E6519702A}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{2D4E1B05-6DA6-4B73-A4D1-872F279B0B68}" type="pres">
+    <dgm:pt modelId="{DEB79EAA-5365-4EBA-B85F-39065B5FD785}" type="pres">
       <dgm:prSet presAssocID="{3F92798C-7F12-4E97-B337-FFB07F1E1C0F}" presName="Name19" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{676790AB-26D7-4116-9FE2-862AC9B66D96}" type="pres">
+    <dgm:pt modelId="{DE02001C-BA6B-41A2-91D6-2C91802E3CFE}" type="pres">
       <dgm:prSet presAssocID="{838C3B43-C87D-42F0-850D-E496D0CC9F4E}" presName="Name21" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{83439119-651C-49BD-B1AC-BEDEEE455B71}" type="pres">
+    <dgm:pt modelId="{DF74F54D-DE88-4238-88B5-F515D2D46E17}" type="pres">
       <dgm:prSet presAssocID="{838C3B43-C87D-42F0-850D-E496D0CC9F4E}" presName="level2Shape" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="3"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{861C5F15-447C-4CFC-B538-5BE2929D043E}" type="pres">
+    <dgm:pt modelId="{557A6F6D-9E77-41BF-86C9-0A972CC60F50}" type="pres">
       <dgm:prSet presAssocID="{838C3B43-C87D-42F0-850D-E496D0CC9F4E}" presName="hierChild3" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
@@ -1667,77 +1881,98 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{7B9E8600-39F3-405A-B963-872E8CF57CC8}" type="presOf" srcId="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" destId="{0B95756B-5EBA-4049-96E4-F601A837A559}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{272AB107-EFF5-4109-99D3-66B6780199F8}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" srcOrd="4" destOrd="0" parTransId="{75B3EC50-D690-4D4E-BF6C-DCD2C12CFC46}" sibTransId="{C5EE03EB-6C37-4572-A8E1-22A559A271D6}"/>
-    <dgm:cxn modelId="{E9881E18-FC82-41C4-AFA4-C124A89E9978}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{87308C38-4B00-4D4C-8172-021E6519702A}" srcOrd="5" destOrd="0" parTransId="{DD0188B7-4C4F-4594-8E47-D81A34D7DD2F}" sibTransId="{5334E6BA-F27A-4AB7-B08B-2AD04D8E09D9}"/>
-    <dgm:cxn modelId="{A52EDE25-CD22-4E22-8AC5-E61DE779B923}" type="presOf" srcId="{DD0188B7-4C4F-4594-8E47-D81A34D7DD2F}" destId="{5D96B59A-C17C-435E-961B-1437B61E357C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{272AB107-EFF5-4109-99D3-66B6780199F8}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" srcOrd="7" destOrd="0" parTransId="{75B3EC50-D690-4D4E-BF6C-DCD2C12CFC46}" sibTransId="{C5EE03EB-6C37-4572-A8E1-22A559A271D6}"/>
+    <dgm:cxn modelId="{53C31D08-C41A-4A9B-B644-AE0290432FCF}" type="presOf" srcId="{A20AC677-8680-44E5-AC83-F865BBB921B5}" destId="{BE7706CD-5D85-4BD2-A401-2506448CA1E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{F84B8414-A915-4BE5-BBED-6A2ED47E6A66}" type="presOf" srcId="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" destId="{0A767DFF-7FBD-4890-89D6-C76BDBED0EBF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{E9881E18-FC82-41C4-AFA4-C124A89E9978}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{87308C38-4B00-4D4C-8172-021E6519702A}" srcOrd="8" destOrd="0" parTransId="{DD0188B7-4C4F-4594-8E47-D81A34D7DD2F}" sibTransId="{5334E6BA-F27A-4AB7-B08B-2AD04D8E09D9}"/>
+    <dgm:cxn modelId="{2660D71D-ED60-4954-B7B0-43B1701B07AA}" type="presOf" srcId="{5D0A028F-9D58-458A-8510-F84764DF7C78}" destId="{94C632D3-869F-4509-ADD8-710DE8585C2C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{3D5CC62A-BCE9-4CD6-B509-38BC0DC50DCF}" type="presOf" srcId="{C56CD6D3-5985-4B50-AC7E-66B40D1203E8}" destId="{E7C4ED13-E054-445D-B6AD-D23670553139}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{CEB5292C-D073-44E4-81BF-CCE4EA434737}" type="presOf" srcId="{36E66C29-79FD-4821-AF32-4741B4E8400C}" destId="{CFA62D35-F0A3-4FD4-AC97-83044ADC5ECB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{BD13635C-76DC-4C9D-BF17-AEB6C10F5B09}" type="presOf" srcId="{D4B08955-4345-439B-B1ED-7CB991269222}" destId="{09FC6502-A202-4257-90AC-CCD83912E2C2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{23825A45-7AA6-4AFB-8CF1-0C2B66641FF4}" type="presOf" srcId="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" destId="{24CFED8A-982C-46A4-A008-E351A3C977A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{B6F81F47-E7A6-4000-AB53-F3E431C01C31}" type="presOf" srcId="{67F5F6DC-FA9A-48E5-89C3-8DCA7B1436DD}" destId="{98564D55-6DE2-4034-B263-E3965CAC6887}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{56335068-A280-45C2-B2B7-ADB5C5E29041}" type="presOf" srcId="{6CAD2B23-7A43-4EAF-905A-C26D48FCDDC0}" destId="{96BF0344-AE1B-4646-B715-3F5E00C98C01}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{0D629D3C-5D08-493E-892E-56AB109392CC}" type="presOf" srcId="{3529B069-B670-4F11-AE13-B9C427D2BB21}" destId="{04CBC13F-BED8-4CD7-A750-385E337F76B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{18678D5B-A9F0-4F3E-BE2C-6682E3A45BA5}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{3529B069-B670-4F11-AE13-B9C427D2BB21}" srcOrd="1" destOrd="0" parTransId="{BEC44739-4513-451A-8B81-1CE991DA6705}" sibTransId="{5A6CED5C-678A-4DA6-9E37-2CBB217075EC}"/>
+    <dgm:cxn modelId="{13E92D43-1380-475B-851D-9ECE38483CE4}" type="presOf" srcId="{BEC44739-4513-451A-8B81-1CE991DA6705}" destId="{07949237-86A6-4157-92FA-88974E88ADC0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{12B66464-6B97-4DD7-8EB6-615C8916E91D}" type="presOf" srcId="{D4B08955-4345-439B-B1ED-7CB991269222}" destId="{29EF84F0-0E7A-4DCE-AE1C-38CA2739AE8E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2440C464-22B8-42CB-91CC-F22D1045B80D}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{5D0A028F-9D58-458A-8510-F84764DF7C78}" srcOrd="0" destOrd="0" parTransId="{4B4234ED-4D29-4623-9D20-7F2BB7185184}" sibTransId="{3C86B611-B469-42E0-A27D-A39D54017093}"/>
+    <dgm:cxn modelId="{FDBAF344-A257-4DC1-A9AD-C43500EC5176}" type="presOf" srcId="{67F5F6DC-FA9A-48E5-89C3-8DCA7B1436DD}" destId="{AE575FF6-AB94-44C0-A0ED-D859815A3C44}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{D08A2445-DDC3-4166-8B51-5A51A3D27878}" type="presOf" srcId="{4B4234ED-4D29-4623-9D20-7F2BB7185184}" destId="{4A1059FE-615F-48DC-9E8B-A37C2B72BA5F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{2ED9416B-D49B-4B41-B34B-BE564203C7A2}" srcId="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" destId="{6CAD2B23-7A43-4EAF-905A-C26D48FCDDC0}" srcOrd="0" destOrd="0" parTransId="{98A5E093-52EB-4B0E-B068-186E2A4A2F75}" sibTransId="{EA3CDCC4-A9EB-48B6-9ACA-83493F56242D}"/>
     <dgm:cxn modelId="{964F2B6C-6CC1-455A-AD0A-B0E8DEBAD612}" type="presOf" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{9420D2A7-8D31-49DF-85F8-14438B6EB063}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{AF06C66D-70C6-44CF-B111-708147DD9A44}" type="presOf" srcId="{01DB00DE-6AE3-4041-89BC-6398F53FBDDD}" destId="{17BFE25D-AD9C-47D0-9C11-1D97C1D23509}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{063CAC4E-824A-4F05-A744-66A83D05F951}" type="presOf" srcId="{C73A4282-0926-432D-832B-E8699F18478C}" destId="{3B11E872-1EFE-46D4-9DF0-248932B57A1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{FA62AB6E-03DF-4D70-8A87-8C8923F794F2}" type="presOf" srcId="{98A5E093-52EB-4B0E-B068-186E2A4A2F75}" destId="{764E9688-804D-4D80-8508-DD589BE620A5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{7FDF0352-84DE-4FA1-81E7-C5DBFAE4130D}" type="presOf" srcId="{179DF12E-CAC2-4CB6-AD72-5090A13538CE}" destId="{57796AFB-BFA4-4837-9615-44220D999A9E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{F3AAC055-6B99-46B5-AC7F-53D1787946E4}" srcId="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" destId="{C73A4282-0926-432D-832B-E8699F18478C}" srcOrd="0" destOrd="0" parTransId="{67F5F6DC-FA9A-48E5-89C3-8DCA7B1436DD}" sibTransId="{43E1B63F-D44E-4405-91E3-984D4DA9FF4C}"/>
-    <dgm:cxn modelId="{A5D5F87C-E0C9-4D27-9305-300D49819773}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{3A88A075-0B48-426E-BE0C-3A31BEF2CE25}" srcOrd="0" destOrd="0" parTransId="{01DB00DE-6AE3-4041-89BC-6398F53FBDDD}" sibTransId="{F815E8D5-3670-411F-B921-F17E46C068B9}"/>
-    <dgm:cxn modelId="{DEBFDB83-4346-4C67-A516-4FEE90F54825}" type="presOf" srcId="{98A5E093-52EB-4B0E-B068-186E2A4A2F75}" destId="{2D8909F5-226B-4BF1-BC0E-536EA92B72EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{7A578884-AD00-4E5F-9370-312DD2DF843D}" type="presOf" srcId="{ECDF5428-E87E-455A-AAAB-1DE6E1F9CA80}" destId="{CD4D2C5A-5953-4D9C-94BB-B220DA92C775}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{D935D587-6FB5-4B60-BD92-1EF67CDBA307}" type="presOf" srcId="{179DF12E-CAC2-4CB6-AD72-5090A13538CE}" destId="{2B676E54-791F-4EFC-A90B-DA7B70866C56}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{79739D91-3D3A-4B74-834A-CACCFD575547}" type="presOf" srcId="{838C3B43-C87D-42F0-850D-E496D0CC9F4E}" destId="{83439119-651C-49BD-B1AC-BEDEEE455B71}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{D6C2CB8A-0215-4DAB-8D12-271F0E89405E}" type="presOf" srcId="{40462F0A-3336-4036-BD3C-D2EFFB36F5ED}" destId="{5DF33273-8273-45E9-8704-88F77A4A2847}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{81D39D90-8DAF-4E8B-B0A4-2D866E03DC88}" type="presOf" srcId="{87308C38-4B00-4D4C-8172-021E6519702A}" destId="{978A5666-4D81-4B20-862A-4ECA843D6AB1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{A1C6CE96-C9A7-4C51-90A6-B71A3D4FCFB4}" type="presOf" srcId="{6CAD2B23-7A43-4EAF-905A-C26D48FCDDC0}" destId="{8CD72556-E45E-41B1-AF1C-696AB9BA7D88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{0309A797-77E0-4E85-8F57-AE40C50ED8D0}" srcId="{36E66C29-79FD-4821-AF32-4741B4E8400C}" destId="{F837C07A-ED9B-4321-B9E2-291086B16836}" srcOrd="0" destOrd="0" parTransId="{B0866A8D-84B9-4D92-8FAF-FC844386082E}" sibTransId="{2E33F603-0703-48AF-B24B-2A3997B1C7AB}"/>
-    <dgm:cxn modelId="{85D7669D-5BB4-4BAC-B1FC-E893B18D6BCB}" type="presOf" srcId="{75B3EC50-D690-4D4E-BF6C-DCD2C12CFC46}" destId="{3C25183E-014D-4E7A-9CD2-FB440C098E60}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{1434149A-CC49-4722-B45F-2752B3063156}" type="presOf" srcId="{CD19314A-B218-4DC1-B374-EDA2C336EB4C}" destId="{E944ABC5-5A36-4AFF-898E-EA804A1E01E7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{390F4CA0-D312-4EEA-AC05-A2F9FF5F836C}" type="presOf" srcId="{F463B3ED-D521-46C3-B018-CC9ECFD316B8}" destId="{258B6BF5-08C3-4564-8F47-858FE7D0C326}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{CE0AEEA6-BFB6-4B18-99D8-1B8501BD60D5}" srcId="{87308C38-4B00-4D4C-8172-021E6519702A}" destId="{838C3B43-C87D-42F0-850D-E496D0CC9F4E}" srcOrd="0" destOrd="0" parTransId="{3F92798C-7F12-4E97-B337-FFB07F1E1C0F}" sibTransId="{D0A1F022-4F25-409B-A040-710069E1AAEC}"/>
-    <dgm:cxn modelId="{64D98DAD-FD21-4809-AEA0-243B808AD2AC}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" srcOrd="3" destOrd="0" parTransId="{D451F2E3-36D5-4881-8463-0C867E230711}" sibTransId="{3FC57A7A-2C95-4EC0-BB88-4FB1BB31073D}"/>
-    <dgm:cxn modelId="{E90BB5CB-EF2F-49BC-83E0-320A1F1E4826}" type="presOf" srcId="{87308C38-4B00-4D4C-8172-021E6519702A}" destId="{7FB10CBF-A0F6-4C57-B1F4-C18A45A115DE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{F383DDD0-1FBC-435C-BA43-4EDC0B48BA4E}" type="presOf" srcId="{3F92798C-7F12-4E97-B337-FFB07F1E1C0F}" destId="{2D4E1B05-6DA6-4B73-A4D1-872F279B0B68}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{2361EAD2-3517-4815-A1C8-E8B49FF16EF8}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{AE91AB82-3183-478E-9FE6-37BD847D2315}" srcOrd="2" destOrd="0" parTransId="{179DF12E-CAC2-4CB6-AD72-5090A13538CE}" sibTransId="{2F216F1A-CA35-446F-984C-EB39AF2BCC4F}"/>
-    <dgm:cxn modelId="{1AC607D9-60EA-4C44-B66B-3042CAD668F6}" type="presOf" srcId="{3A88A075-0B48-426E-BE0C-3A31BEF2CE25}" destId="{7CB894AB-551C-4B41-A670-983FFA91FFBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{0890BCDB-1E38-4C00-822E-74ACA28DE8C9}" type="presOf" srcId="{D451F2E3-36D5-4881-8463-0C867E230711}" destId="{BFFFE4F4-8B00-4A81-841C-D9F6522FA8A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{2AF907E2-EE4D-4D57-A030-33A9DA3CE8AA}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{D4B08955-4345-439B-B1ED-7CB991269222}" srcOrd="1" destOrd="0" parTransId="{ECDF5428-E87E-455A-AAAB-1DE6E1F9CA80}" sibTransId="{84D10E62-916B-45E7-9866-79E56DE02298}"/>
-    <dgm:cxn modelId="{831C6BEE-515C-4131-8B93-3B368317EB36}" type="presOf" srcId="{AE91AB82-3183-478E-9FE6-37BD847D2315}" destId="{7A9FB87E-C983-4098-A771-B782BA8560F1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{64D98DAD-FD21-4809-AEA0-243B808AD2AC}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{E410FF30-7CB1-4484-AA5C-909DE532A66F}" srcOrd="6" destOrd="0" parTransId="{D451F2E3-36D5-4881-8463-0C867E230711}" sibTransId="{3FC57A7A-2C95-4EC0-BB88-4FB1BB31073D}"/>
+    <dgm:cxn modelId="{3A720FAF-09B6-4DBE-A913-28828CF4C2C5}" type="presOf" srcId="{3F92798C-7F12-4E97-B337-FFB07F1E1C0F}" destId="{DEB79EAA-5365-4EBA-B85F-39065B5FD785}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{BC4E5AB6-879E-449D-A285-89DB112D136F}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{F463B3ED-D521-46C3-B018-CC9ECFD316B8}" srcOrd="5" destOrd="0" parTransId="{A20AC677-8680-44E5-AC83-F865BBB921B5}" sibTransId="{4C342667-8818-48DD-B39E-C77720569354}"/>
+    <dgm:cxn modelId="{AF8D76B7-8E37-4E18-81C5-D5C97E986112}" type="presOf" srcId="{ECDF5428-E87E-455A-AAAB-1DE6E1F9CA80}" destId="{B2CC4D46-D5D4-4155-BDAE-661C73E8847D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{7CAC7DBC-74D6-4057-8AF8-B5A25D160CDA}" type="presOf" srcId="{AE91AB82-3183-478E-9FE6-37BD847D2315}" destId="{5ACE8A6A-5F66-402B-BA2A-CF054E26475D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{D79BF1BD-AF1C-407D-9804-B24C5F439E02}" type="presOf" srcId="{75B3EC50-D690-4D4E-BF6C-DCD2C12CFC46}" destId="{3EBAC78E-EFC0-4D22-A09C-AA7E78DD79EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2361EAD2-3517-4815-A1C8-E8B49FF16EF8}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{AE91AB82-3183-478E-9FE6-37BD847D2315}" srcOrd="4" destOrd="0" parTransId="{179DF12E-CAC2-4CB6-AD72-5090A13538CE}" sibTransId="{2F216F1A-CA35-446F-984C-EB39AF2BCC4F}"/>
+    <dgm:cxn modelId="{146339D7-BC94-403C-B02F-31C83EDCC1CF}" type="presOf" srcId="{C73A4282-0926-432D-832B-E8699F18478C}" destId="{D4BD6E65-36DE-47C0-BAD9-E03BDFE1A5B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2AF907E2-EE4D-4D57-A030-33A9DA3CE8AA}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{D4B08955-4345-439B-B1ED-7CB991269222}" srcOrd="3" destOrd="0" parTransId="{ECDF5428-E87E-455A-AAAB-1DE6E1F9CA80}" sibTransId="{84D10E62-916B-45E7-9866-79E56DE02298}"/>
+    <dgm:cxn modelId="{C8B118E4-A684-4C6D-B6F0-3427E342AF06}" type="presOf" srcId="{DD0188B7-4C4F-4594-8E47-D81A34D7DD2F}" destId="{B2065EA1-F03B-4143-8777-8E341D1CDBA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{46705CE6-F180-431D-94E0-4A05BE8B27E4}" srcId="{F837C07A-ED9B-4321-B9E2-291086B16836}" destId="{CD19314A-B218-4DC1-B374-EDA2C336EB4C}" srcOrd="2" destOrd="0" parTransId="{C56CD6D3-5985-4B50-AC7E-66B40D1203E8}" sibTransId="{B5D77166-F4CF-43AC-8BD0-993FE70C0158}"/>
+    <dgm:cxn modelId="{FA3B37EA-B0F0-49C2-8A3F-69F6FBD7BC5B}" type="presOf" srcId="{D451F2E3-36D5-4881-8463-0C867E230711}" destId="{7AD39E9B-F0C8-41FF-A89E-F95CDC1E05D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{4F9AB4F1-0862-4379-A45C-A61799A45639}" type="presOf" srcId="{838C3B43-C87D-42F0-850D-E496D0CC9F4E}" destId="{DF74F54D-DE88-4238-88B5-F515D2D46E17}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{405D3EBF-DE63-453F-BA2F-91FD6AC2402D}" type="presParOf" srcId="{CFA62D35-F0A3-4FD4-AC97-83044ADC5ECB}" destId="{0BA674D5-FE3C-462B-B045-E01D359F0EA5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{4B97FAE9-9925-4D05-B299-28C6F4A41D49}" type="presParOf" srcId="{0BA674D5-FE3C-462B-B045-E01D359F0EA5}" destId="{44ADB4B2-F374-407F-9945-1F27FB67F537}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{95D89F6A-25E6-4CBB-AF21-113DE42A28B2}" type="presParOf" srcId="{44ADB4B2-F374-407F-9945-1F27FB67F537}" destId="{16093341-BC97-49EC-9265-19460C2ACD36}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{D805F708-E67E-45BB-A9D3-783D0F40C806}" type="presParOf" srcId="{16093341-BC97-49EC-9265-19460C2ACD36}" destId="{9420D2A7-8D31-49DF-85F8-14438B6EB063}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{57201B71-F61B-4E5B-A9EE-BAF91FCF93BB}" type="presParOf" srcId="{16093341-BC97-49EC-9265-19460C2ACD36}" destId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{C58B5E33-0D0B-41A9-A9A1-6DBFE0A23B12}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{17BFE25D-AD9C-47D0-9C11-1D97C1D23509}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{2D300B38-C912-405E-A89B-A4B6B0CB9207}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{BC4DCAD4-6182-4F63-BB60-C8040B0F7E07}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{76C4CB71-E38E-4F64-A711-33D5073499D0}" type="presParOf" srcId="{BC4DCAD4-6182-4F63-BB60-C8040B0F7E07}" destId="{7CB894AB-551C-4B41-A670-983FFA91FFBE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{92E04CC8-5916-447C-8E00-587D06C92682}" type="presParOf" srcId="{BC4DCAD4-6182-4F63-BB60-C8040B0F7E07}" destId="{C558D031-7886-4C34-A2EC-6F24699224E1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{6AF0F18B-75EF-4507-94EF-705072159EF7}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{CD4D2C5A-5953-4D9C-94BB-B220DA92C775}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{B787161E-3055-44F2-BDB6-995D95FDE2AF}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{E649F0C5-0974-49E0-812C-1BF305C58652}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{0B2B42D2-7C60-4D1F-B945-5A74267F7FD2}" type="presParOf" srcId="{E649F0C5-0974-49E0-812C-1BF305C58652}" destId="{09FC6502-A202-4257-90AC-CCD83912E2C2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{8E471DC6-989F-491A-B739-0E89E6E54F09}" type="presParOf" srcId="{E649F0C5-0974-49E0-812C-1BF305C58652}" destId="{2EEB40B8-C894-46FC-83F0-CF8AD0E2BB89}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{391BBF02-2116-4DE4-9462-9BE57AA42524}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{2B676E54-791F-4EFC-A90B-DA7B70866C56}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{4335CE46-5082-406A-8EC0-E8A006354DD3}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{DA2237A7-A194-48D0-BD4B-3D3A5831676F}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{E71F8A2B-8317-4A94-A11B-F7D697E6FACF}" type="presParOf" srcId="{DA2237A7-A194-48D0-BD4B-3D3A5831676F}" destId="{7A9FB87E-C983-4098-A771-B782BA8560F1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{31C3EE02-0231-4A91-9087-672100A6335A}" type="presParOf" srcId="{DA2237A7-A194-48D0-BD4B-3D3A5831676F}" destId="{EDB28057-F912-4316-B5F9-2D02CBADE7E0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{80664405-04E4-4294-A0AC-717D208DB32A}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{BFFFE4F4-8B00-4A81-841C-D9F6522FA8A3}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{EBBF6AC8-8620-4166-8F0C-484E1DB03BCF}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{921A76AA-4239-47EF-91BF-84AA14313B4F}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{390DA742-8321-4BD9-9BA3-892E2126CEEA}" type="presParOf" srcId="{921A76AA-4239-47EF-91BF-84AA14313B4F}" destId="{0B95756B-5EBA-4049-96E4-F601A837A559}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{FD857653-AD75-4E2D-A549-67DEEBC6107E}" type="presParOf" srcId="{921A76AA-4239-47EF-91BF-84AA14313B4F}" destId="{649D6FBB-40BF-4C83-B042-6293BD1540D9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{4C8A179F-B82F-4DBA-A32D-FB3735707D6E}" type="presParOf" srcId="{649D6FBB-40BF-4C83-B042-6293BD1540D9}" destId="{2D8909F5-226B-4BF1-BC0E-536EA92B72EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{7399E684-42AD-4255-B43E-ABAF83E22AA2}" type="presParOf" srcId="{649D6FBB-40BF-4C83-B042-6293BD1540D9}" destId="{9F0B9A62-5F7E-425A-83C7-6A28521854D8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{13844535-F8ED-4A21-8251-4F5089B39748}" type="presParOf" srcId="{9F0B9A62-5F7E-425A-83C7-6A28521854D8}" destId="{96BF0344-AE1B-4646-B715-3F5E00C98C01}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{971C8FD8-9801-407E-80AB-A69BB03A6C0D}" type="presParOf" srcId="{9F0B9A62-5F7E-425A-83C7-6A28521854D8}" destId="{C3D2B967-05F4-40CD-B9CC-87C3CA5AAB79}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{8ED7BF22-01BF-4A22-BB15-55DEFE2EFA83}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{3C25183E-014D-4E7A-9CD2-FB440C098E60}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{535908E4-A46F-407C-94B2-591D03050BA6}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{CF68BF67-02DF-49CE-A0D0-C98DD62AC25D}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{38E84DDF-4B40-40C6-ACD6-908054304955}" type="presParOf" srcId="{CF68BF67-02DF-49CE-A0D0-C98DD62AC25D}" destId="{24CFED8A-982C-46A4-A008-E351A3C977A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{13EF38A9-43F4-4E0F-8D9D-DF009FC21B82}" type="presParOf" srcId="{CF68BF67-02DF-49CE-A0D0-C98DD62AC25D}" destId="{2475EE98-4E96-48C1-8518-AF4B53A3C271}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{57003CFF-FD32-4756-9D13-047D186CD939}" type="presParOf" srcId="{2475EE98-4E96-48C1-8518-AF4B53A3C271}" destId="{98564D55-6DE2-4034-B263-E3965CAC6887}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{A3018EC8-876B-43CD-845B-2960D10A5C5D}" type="presParOf" srcId="{2475EE98-4E96-48C1-8518-AF4B53A3C271}" destId="{C3D3AAA3-7362-42CB-BD1C-B9B452FAA801}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{1712E458-67D9-48F1-89A7-A1C01E7D899C}" type="presParOf" srcId="{C3D3AAA3-7362-42CB-BD1C-B9B452FAA801}" destId="{3B11E872-1EFE-46D4-9DF0-248932B57A1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{431CE57A-8745-4F2B-AE6D-C00A25ACAF73}" type="presParOf" srcId="{C3D3AAA3-7362-42CB-BD1C-B9B452FAA801}" destId="{07467D1E-F98C-4DA2-BBA9-2244F518CEF7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{D724B313-56E3-4FDA-A2E6-72C197190A6A}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{5D96B59A-C17C-435E-961B-1437B61E357C}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{228B663C-738E-4F88-AF01-8ADA67B6D019}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{66D1416C-E103-4CF0-81BA-5DC7D20574EA}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{C9261461-C60F-4441-B416-EB1AA0EFACB5}" type="presParOf" srcId="{66D1416C-E103-4CF0-81BA-5DC7D20574EA}" destId="{7FB10CBF-A0F6-4C57-B1F4-C18A45A115DE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{D1B33755-E837-48A1-83CD-4F8C1C62202F}" type="presParOf" srcId="{66D1416C-E103-4CF0-81BA-5DC7D20574EA}" destId="{27932247-4151-4D3A-80E0-A4149F5FCBEB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{775FA127-2960-442A-B6D0-C371C7C3DB60}" type="presParOf" srcId="{27932247-4151-4D3A-80E0-A4149F5FCBEB}" destId="{2D4E1B05-6DA6-4B73-A4D1-872F279B0B68}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{16B36397-B001-47D0-82CF-785F6AD77E93}" type="presParOf" srcId="{27932247-4151-4D3A-80E0-A4149F5FCBEB}" destId="{676790AB-26D7-4116-9FE2-862AC9B66D96}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{F3874485-04EC-44D4-8A0B-B8EFCBD2D590}" type="presParOf" srcId="{676790AB-26D7-4116-9FE2-862AC9B66D96}" destId="{83439119-651C-49BD-B1AC-BEDEEE455B71}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
-    <dgm:cxn modelId="{2F9489F0-A703-4279-92F9-353894E28800}" type="presParOf" srcId="{676790AB-26D7-4116-9FE2-862AC9B66D96}" destId="{861C5F15-447C-4CFC-B538-5BE2929D043E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{61A3C3F9-166C-47FF-9DF0-A176FAD5F4DC}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{4A1059FE-615F-48DC-9E8B-A37C2B72BA5F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{BFABD59C-B9DE-4AF7-BED0-30EC90FEE547}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{3D679291-E4E1-4BA2-A46B-57CF551C8C8D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2262057A-CE16-4424-89D5-1D82F82CA28E}" type="presParOf" srcId="{3D679291-E4E1-4BA2-A46B-57CF551C8C8D}" destId="{94C632D3-869F-4509-ADD8-710DE8585C2C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{17255F48-02D7-46EE-AADF-6D990EE62646}" type="presParOf" srcId="{3D679291-E4E1-4BA2-A46B-57CF551C8C8D}" destId="{3CDF1C60-DDE8-4E31-9F4E-982B66722DE9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{00A02B85-F917-4971-865A-8473D5678EF3}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{07949237-86A6-4157-92FA-88974E88ADC0}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{4697133C-2C5A-4900-8965-5C95474CB1A5}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{7460DBC0-5506-42AD-A935-9B3D1D964AA9}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{28FCD392-79BF-4782-992A-71CD3BA2E4A7}" type="presParOf" srcId="{7460DBC0-5506-42AD-A935-9B3D1D964AA9}" destId="{04CBC13F-BED8-4CD7-A750-385E337F76B3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2B6877E1-7D7B-42E8-AF9E-1796EED94D12}" type="presParOf" srcId="{7460DBC0-5506-42AD-A935-9B3D1D964AA9}" destId="{F79CA718-D5DB-46B8-9A73-E09E4FC340EE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{627A5C30-656E-4E18-99FD-97662F21BDF3}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{E7C4ED13-E054-445D-B6AD-D23670553139}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{D8AECD45-6A6A-41CE-8D3B-64FB85CB2FD3}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{37D9206A-2B0F-4488-A7A1-D8ACE112EE5C}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{A7D4E154-2BCB-4026-9741-37D0CBFA5056}" type="presParOf" srcId="{37D9206A-2B0F-4488-A7A1-D8ACE112EE5C}" destId="{E944ABC5-5A36-4AFF-898E-EA804A1E01E7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{02B041CD-9E44-4D29-B730-8B7148A45698}" type="presParOf" srcId="{37D9206A-2B0F-4488-A7A1-D8ACE112EE5C}" destId="{75ADF745-690C-44B4-A49D-551BF22C3F46}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2F3A7287-4BB7-4402-A68B-6AA69FDB6BF1}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{B2CC4D46-D5D4-4155-BDAE-661C73E8847D}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{AC8FDC91-3243-4552-8F50-092D2D7C2101}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{C4E37E5F-CDC9-4048-9351-DB3C814E5A6F}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{8C51513A-7965-4933-87AA-4FA792CD0A0F}" type="presParOf" srcId="{C4E37E5F-CDC9-4048-9351-DB3C814E5A6F}" destId="{29EF84F0-0E7A-4DCE-AE1C-38CA2739AE8E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{91E0BD53-910A-404E-B08C-0334C08CED8C}" type="presParOf" srcId="{C4E37E5F-CDC9-4048-9351-DB3C814E5A6F}" destId="{9F8F8F09-5E34-4990-8A2A-CE0DC6ACF578}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{C3301CE3-BFA5-4CC0-BCDD-7EF33E09F438}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{57796AFB-BFA4-4837-9615-44220D999A9E}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{2D875EDB-F830-40CF-A30B-C592D045D900}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{1ECE1C9A-5D52-46D9-B8EF-856814A4BC69}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{A76688F6-2021-49DA-BAB4-72B4E58411C6}" type="presParOf" srcId="{1ECE1C9A-5D52-46D9-B8EF-856814A4BC69}" destId="{5ACE8A6A-5F66-402B-BA2A-CF054E26475D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{F1C63D7F-F730-464B-B3CF-317A67A83439}" type="presParOf" srcId="{1ECE1C9A-5D52-46D9-B8EF-856814A4BC69}" destId="{62DB5BB1-9CF2-4196-A52E-FE0C6E3D0E86}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{14796D68-AA4D-4F11-BD06-2EFADE799716}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{BE7706CD-5D85-4BD2-A401-2506448CA1E5}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{39224B52-516B-4D6F-97D0-FA588C5F4867}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{0313B552-CF90-4E1C-90D3-B49AF2D01BB4}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{3294132C-7432-46A8-A5AB-3DB3276F604E}" type="presParOf" srcId="{0313B552-CF90-4E1C-90D3-B49AF2D01BB4}" destId="{258B6BF5-08C3-4564-8F47-858FE7D0C326}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{A50EB9E1-136A-4CF4-929F-9B6CEF57DC37}" type="presParOf" srcId="{0313B552-CF90-4E1C-90D3-B49AF2D01BB4}" destId="{00CA7B79-7603-4494-83BF-E55F9CE0F6EE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{15A81511-78E3-4A53-A9C8-45F629636335}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{7AD39E9B-F0C8-41FF-A89E-F95CDC1E05D0}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{7DC19200-9AE0-4450-9D95-E2E4FFDD424D}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{860A8389-A874-43AA-9008-F876EF450CBB}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{CF83931B-871F-4113-A89B-3D493EB1AF7D}" type="presParOf" srcId="{860A8389-A874-43AA-9008-F876EF450CBB}" destId="{0A767DFF-7FBD-4890-89D6-C76BDBED0EBF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{91717883-4F33-4DB8-8DAC-919E75BEF355}" type="presParOf" srcId="{860A8389-A874-43AA-9008-F876EF450CBB}" destId="{030256C2-00F2-4E6A-AE10-B44FB3F77458}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{F00F7851-C6B9-4918-9C6B-468101EDCAF9}" type="presParOf" srcId="{030256C2-00F2-4E6A-AE10-B44FB3F77458}" destId="{764E9688-804D-4D80-8508-DD589BE620A5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{1202F7BB-65DE-4489-805E-45C62D178336}" type="presParOf" srcId="{030256C2-00F2-4E6A-AE10-B44FB3F77458}" destId="{970AC0B4-6B73-4C25-9AD7-8DAB0BABBD2A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{94BED17A-BF84-4A1E-A5F9-9F05D4C69BFD}" type="presParOf" srcId="{970AC0B4-6B73-4C25-9AD7-8DAB0BABBD2A}" destId="{8CD72556-E45E-41B1-AF1C-696AB9BA7D88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{ADE1D58D-A7FC-43A3-AA94-4BEE2DB94985}" type="presParOf" srcId="{970AC0B4-6B73-4C25-9AD7-8DAB0BABBD2A}" destId="{2AFE0919-DEDC-46A7-8498-7351D4FA6E57}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{DD06A2A4-347D-4C71-9CF7-87D21CDB5C17}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{3EBAC78E-EFC0-4D22-A09C-AA7E78DD79EE}" srcOrd="14" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{828B269B-E650-4169-A58E-5400B760E61B}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{2385A730-DE64-461E-8A35-1C4EA618A755}" srcOrd="15" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{D8AB3F77-619D-4BB1-8206-28C41D7CE25E}" type="presParOf" srcId="{2385A730-DE64-461E-8A35-1C4EA618A755}" destId="{5DF33273-8273-45E9-8704-88F77A4A2847}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{8F022060-6554-4379-8F2C-9DE86170158A}" type="presParOf" srcId="{2385A730-DE64-461E-8A35-1C4EA618A755}" destId="{BA148260-8CF5-4211-BBC9-2731AF913C15}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{7E5C8D24-9931-4AF5-8BF4-C459E1794C70}" type="presParOf" srcId="{BA148260-8CF5-4211-BBC9-2731AF913C15}" destId="{AE575FF6-AB94-44C0-A0ED-D859815A3C44}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{3450E769-A9C1-4F4A-AEBE-C5076E3ACCFC}" type="presParOf" srcId="{BA148260-8CF5-4211-BBC9-2731AF913C15}" destId="{67A58EF0-728B-4DFE-BA6E-D4D94051FDDA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{59468BAA-47D3-4BBA-82DA-9ED2370AF8F0}" type="presParOf" srcId="{67A58EF0-728B-4DFE-BA6E-D4D94051FDDA}" destId="{D4BD6E65-36DE-47C0-BAD9-E03BDFE1A5B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{DEB1D1E3-F2E6-4C0E-96D6-C77439ACF6B7}" type="presParOf" srcId="{67A58EF0-728B-4DFE-BA6E-D4D94051FDDA}" destId="{1F45F9A0-DDD6-410E-8A68-2160548F58D9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{E447DE6D-F7BA-4E51-978B-B46E14DCDA29}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{B2065EA1-F03B-4143-8777-8E341D1CDBA8}" srcOrd="16" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{51143F2D-0765-4591-972D-72A406D51991}" type="presParOf" srcId="{F366BFB4-5ABA-40E4-A68C-F91CC9436E8B}" destId="{4162F1F0-BE24-4673-8EC3-7AEED028B17F}" srcOrd="17" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{24934F28-78B3-404D-80CF-1845B0685879}" type="presParOf" srcId="{4162F1F0-BE24-4673-8EC3-7AEED028B17F}" destId="{978A5666-4D81-4B20-862A-4ECA843D6AB1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{1D9DCAF3-80FC-4623-9B61-69CBC1FDC58D}" type="presParOf" srcId="{4162F1F0-BE24-4673-8EC3-7AEED028B17F}" destId="{CB7D7FB4-C252-4237-9603-402F3B8ADDC1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{652EF4AD-5FDF-43CA-956A-865F25D101A3}" type="presParOf" srcId="{CB7D7FB4-C252-4237-9603-402F3B8ADDC1}" destId="{DEB79EAA-5365-4EBA-B85F-39065B5FD785}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{3523407D-52DD-4EC2-84EC-8F9F37F0FF1E}" type="presParOf" srcId="{CB7D7FB4-C252-4237-9603-402F3B8ADDC1}" destId="{DE02001C-BA6B-41A2-91D6-2C91802E3CFE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{9C03B0FC-F353-49A4-A868-C110DDBFB4EA}" type="presParOf" srcId="{DE02001C-BA6B-41A2-91D6-2C91802E3CFE}" destId="{DF74F54D-DE88-4238-88B5-F515D2D46E17}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
+    <dgm:cxn modelId="{6CCD1FBB-709C-4A38-8ED6-B5B05EDCBE9C}" type="presParOf" srcId="{DE02001C-BA6B-41A2-91D6-2C91802E3CFE}" destId="{557A6F6D-9E77-41BF-86C9-0A972CC60F50}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
     <dgm:cxn modelId="{B7AEEFA6-0EF3-4CB7-B15F-69C60F77E8CF}" type="presParOf" srcId="{CFA62D35-F0A3-4FD4-AC97-83044ADC5ECB}" destId="{369F4AA5-C997-4C7A-85EC-C670CAA2768B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy6"/>
   </dgm:cxnLst>
   <dgm:bg/>
@@ -1768,8 +2003,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4544548" y="1577327"/>
-          <a:ext cx="1397928" cy="931952"/>
+          <a:off x="6852197" y="1532793"/>
+          <a:ext cx="1316531" cy="877687"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1811,12 +2046,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1829,25 +2064,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
             <a:t>NPN_pages</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4571844" y="1604623"/>
-        <a:ext cx="1343336" cy="877360"/>
+        <a:off x="6877904" y="1558500"/>
+        <a:ext cx="1265117" cy="826273"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{17BFE25D-AD9C-47D0-9C11-1D97C1D23509}">
+    <dsp:sp modelId="{4A1059FE-615F-48DC-9E8B-A37C2B72BA5F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="700244" y="2509280"/>
-          <a:ext cx="4543268" cy="372780"/>
+          <a:off x="664499" y="2410481"/>
+          <a:ext cx="6845963" cy="351075"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1858,16 +2093,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="4543268" y="0"/>
+                <a:pt x="6845963" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="4543268" y="186390"/>
+                <a:pt x="6845963" y="175537"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="186390"/>
+                <a:pt x="0" y="175537"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="372780"/>
+                <a:pt x="0" y="351075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1895,15 +2130,305 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{7CB894AB-551C-4B41-A670-983FFA91FFBE}">
+    <dsp:sp modelId="{94C632D3-869F-4509-ADD8-710DE8585C2C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1280" y="2882061"/>
-          <a:ext cx="1397928" cy="931952"/>
+          <a:off x="6234" y="2761556"/>
+          <a:ext cx="1316531" cy="877687"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>COMPASS&amp;RULE.md</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>やること</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>統一する項目</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="31941" y="2787263"/>
+        <a:ext cx="1265117" cy="826273"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{07949237-86A6-4157-92FA-88974E88ADC0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2375990" y="2410481"/>
+          <a:ext cx="5134472" cy="351075"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="5134472" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="5134472" y="175537"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="175537"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="351075"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{04CBC13F-BED8-4CD7-A750-385E337F76B3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1717725" y="2761556"/>
+          <a:ext cx="1316531" cy="877687"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>siteMap.xlsx</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>サイトマップ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1743432" y="2787263"/>
+        <a:ext cx="1265117" cy="826273"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E7C4ED13-E054-445D-B6AD-D23670553139}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4087481" y="2410481"/>
+          <a:ext cx="3422981" cy="351075"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="3422981" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="3422981" y="175537"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="175537"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="351075"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E944ABC5-5A36-4AFF-898E-EA804A1E01E7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3429215" y="2761556"/>
+          <a:ext cx="1316531" cy="877687"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1944,12 +2469,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1962,29 +2487,32 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
             <a:t>index.html</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
           </a:br>
-          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>aaaa</a:t>
+          </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="28576" y="2909357"/>
-        <a:ext cx="1343336" cy="877360"/>
+        <a:off x="3454922" y="2787263"/>
+        <a:ext cx="1265117" cy="826273"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{CD4D2C5A-5953-4D9C-94BB-B220DA92C775}">
+    <dsp:sp modelId="{B2CC4D46-D5D4-4155-BDAE-661C73E8847D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2517551" y="2509280"/>
-          <a:ext cx="2725960" cy="372780"/>
+          <a:off x="5798972" y="2410481"/>
+          <a:ext cx="1711490" cy="351075"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1995,16 +2523,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2725960" y="0"/>
+                <a:pt x="1711490" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2725960" y="186390"/>
+                <a:pt x="1711490" y="175537"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="186390"/>
+                <a:pt x="0" y="175537"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="372780"/>
+                <a:pt x="0" y="351075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2032,15 +2560,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{09FC6502-A202-4257-90AC-CCD83912E2C2}">
+    <dsp:sp modelId="{29EF84F0-0E7A-4DCE-AE1C-38CA2739AE8E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1818587" y="2882061"/>
-          <a:ext cx="1397928" cy="931952"/>
+          <a:off x="5140706" y="2761556"/>
+          <a:ext cx="1316531" cy="877687"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2079,12 +2607,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2097,33 +2625,33 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
             <a:t>style.css</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
             <a:t>全体スタイル</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1845883" y="2909357"/>
-        <a:ext cx="1343336" cy="877360"/>
+        <a:off x="5166413" y="2787263"/>
+        <a:ext cx="1265117" cy="826273"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{2B676E54-791F-4EFC-A90B-DA7B70866C56}">
+    <dsp:sp modelId="{57796AFB-BFA4-4837-9615-44220D999A9E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4334858" y="2509280"/>
-          <a:ext cx="908653" cy="372780"/>
+          <a:off x="7464742" y="2410481"/>
+          <a:ext cx="91440" cy="351075"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2134,16 +2662,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="908653" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="908653" y="186390"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="186390"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="372780"/>
+                <a:pt x="45720" y="351075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2171,15 +2693,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{7A9FB87E-C983-4098-A771-B782BA8560F1}">
+    <dsp:sp modelId="{5ACE8A6A-5F66-402B-BA2A-CF054E26475D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3635894" y="2882061"/>
-          <a:ext cx="1397928" cy="931952"/>
+          <a:off x="6852197" y="2761556"/>
+          <a:ext cx="1316531" cy="877687"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2220,12 +2742,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2238,33 +2760,33 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
             <a:t>script.js</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
             <a:t>全体動き</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3663190" y="2909357"/>
-        <a:ext cx="1343336" cy="877360"/>
+        <a:off x="6877904" y="2787263"/>
+        <a:ext cx="1265117" cy="826273"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{BFFFE4F4-8B00-4A81-841C-D9F6522FA8A3}">
+    <dsp:sp modelId="{BE7706CD-5D85-4BD2-A401-2506448CA1E5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5243512" y="2509280"/>
-          <a:ext cx="908653" cy="372780"/>
+          <a:off x="7510463" y="2410481"/>
+          <a:ext cx="1711490" cy="351075"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2278,21 +2800,27 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="186390"/>
+                <a:pt x="0" y="175537"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="908653" y="186390"/>
+                <a:pt x="1711490" y="175537"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="908653" y="372780"/>
+                <a:pt x="1711490" y="351075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:scrgbClr r="0" g="0" b="0"/>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
@@ -2312,15 +2840,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{0B95756B-5EBA-4049-96E4-F601A837A559}">
+    <dsp:sp modelId="{258B6BF5-08C3-4564-8F47-858FE7D0C326}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5453201" y="2882061"/>
-          <a:ext cx="1397928" cy="931952"/>
+          <a:off x="8563688" y="2761556"/>
+          <a:ext cx="1316531" cy="877687"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2362,12 +2890,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2380,25 +2908,33 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>about</a:t>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>img</a:t>
           </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>イメージファイル入れ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5480497" y="2909357"/>
-        <a:ext cx="1343336" cy="877360"/>
+        <a:off x="8589395" y="2787263"/>
+        <a:ext cx="1265117" cy="826273"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{2D8909F5-226B-4BF1-BC0E-536EA92B72EC}">
+    <dsp:sp modelId="{7AD39E9B-F0C8-41FF-A89E-F95CDC1E05D0}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6106446" y="3814013"/>
-          <a:ext cx="91440" cy="372780"/>
+          <a:off x="7510463" y="2410481"/>
+          <a:ext cx="3422981" cy="351075"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2409,10 +2945,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="45720" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="372780"/>
+                <a:pt x="0" y="175537"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3422981" y="175537"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3422981" y="351075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2440,163 +2982,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{96BF0344-AE1B-4646-B715-3F5E00C98C01}">
+    <dsp:sp modelId="{0A767DFF-7FBD-4890-89D6-C76BDBED0EBF}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5453201" y="4186794"/>
-          <a:ext cx="1397928" cy="931952"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>about.html</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>メンバー紹介</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" kern="1200"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>経歴</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5480497" y="4214090"/>
-        <a:ext cx="1343336" cy="877360"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{3C25183E-014D-4E7A-9CD2-FB440C098E60}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5243512" y="2509280"/>
-          <a:ext cx="2725960" cy="372780"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="186390"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2725960" y="186390"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="2725960" y="372780"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="34925" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-    </dsp:sp>
-    <dsp:sp modelId="{24CFED8A-982C-46A4-A008-E351A3C977A3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="7270509" y="2882061"/>
-          <a:ext cx="1397928" cy="931952"/>
+          <a:off x="10275178" y="2761556"/>
+          <a:ext cx="1316531" cy="877687"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2638,12 +3032,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2656,25 +3050,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>WoWs</a:t>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>about</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7297805" y="2909357"/>
-        <a:ext cx="1343336" cy="877360"/>
+        <a:off x="10300885" y="2787263"/>
+        <a:ext cx="1265117" cy="826273"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{98564D55-6DE2-4034-B263-E3965CAC6887}">
+    <dsp:sp modelId="{764E9688-804D-4D80-8508-DD589BE620A5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7923753" y="3814013"/>
-          <a:ext cx="91440" cy="372780"/>
+          <a:off x="10887724" y="3639243"/>
+          <a:ext cx="91440" cy="351075"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2688,7 +3082,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="372780"/>
+                <a:pt x="45720" y="351075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2716,15 +3110,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{3B11E872-1EFE-46D4-9DF0-248932B57A1A}">
+    <dsp:sp modelId="{8CD72556-E45E-41B1-AF1C-696AB9BA7D88}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7270509" y="4186794"/>
-          <a:ext cx="1397928" cy="931952"/>
+          <a:off x="10275178" y="3990318"/>
+          <a:ext cx="1316531" cy="877687"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2765,12 +3159,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2783,40 +3177,40 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>wows.html</a:t>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>about.html</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>動画紹介</a:t>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>メンバー紹介</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
-            <a:t>戦績公開</a:t>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>経歴</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7297805" y="4214090"/>
-        <a:ext cx="1343336" cy="877360"/>
+        <a:off x="10300885" y="4016025"/>
+        <a:ext cx="1265117" cy="826273"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{5D96B59A-C17C-435E-961B-1437B61E357C}">
+    <dsp:sp modelId="{3EBAC78E-EFC0-4D22-A09C-AA7E78DD79EE}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5243512" y="2509280"/>
-          <a:ext cx="4543268" cy="372780"/>
+          <a:off x="7510463" y="2410481"/>
+          <a:ext cx="5134472" cy="351075"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2830,19 +3224,19 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="186390"/>
+                <a:pt x="0" y="175537"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4543268" y="186390"/>
+                <a:pt x="5134472" y="175537"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4543268" y="372780"/>
+                <a:pt x="5134472" y="351075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="34925" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:scrgbClr r="0" g="0" b="0"/>
           </a:solidFill>
@@ -2864,15 +3258,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{7FB10CBF-A0F6-4C57-B1F4-C18A45A115DE}">
+    <dsp:sp modelId="{5DF33273-8273-45E9-8704-88F77A4A2847}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9087816" y="2882061"/>
-          <a:ext cx="1397928" cy="931952"/>
+          <a:off x="11986669" y="2761556"/>
+          <a:ext cx="1316531" cy="877687"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2914,12 +3308,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2932,25 +3326,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
-            <a:t>Mincraft</a:t>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>WoWs</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9115112" y="2909357"/>
-        <a:ext cx="1343336" cy="877360"/>
+        <a:off x="12012376" y="2787263"/>
+        <a:ext cx="1265117" cy="826273"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{2D4E1B05-6DA6-4B73-A4D1-872F279B0B68}">
+    <dsp:sp modelId="{AE575FF6-AB94-44C0-A0ED-D859815A3C44}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9741060" y="3814013"/>
-          <a:ext cx="91440" cy="372780"/>
+          <a:off x="12599215" y="3639243"/>
+          <a:ext cx="91440" cy="351075"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2964,7 +3358,7 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="372780"/>
+                <a:pt x="45720" y="351075"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2992,15 +3386,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{83439119-651C-49BD-B1AC-BEDEEE455B71}">
+    <dsp:sp modelId="{D4BD6E65-36DE-47C0-BAD9-E03BDFE1A5B9}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9087816" y="4186794"/>
-          <a:ext cx="1397928" cy="931952"/>
+          <a:off x="11986669" y="3990318"/>
+          <a:ext cx="1316531" cy="877687"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3041,12 +3435,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="53340" tIns="53340" rIns="53340" bIns="53340" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3059,22 +3453,298 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>wows.html</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>動画紹介</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            <a:t>戦績公開</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="12012376" y="4016025"/>
+        <a:ext cx="1265117" cy="826273"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B2065EA1-F03B-4143-8777-8E341D1CDBA8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7510463" y="2410481"/>
+          <a:ext cx="6845963" cy="351075"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="175537"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6845963" y="175537"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6845963" y="351075"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{978A5666-4D81-4B20-862A-4ECA843D6AB1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13698160" y="2761556"/>
+          <a:ext cx="1316531" cy="877687"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Mincraft</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="13723867" y="2787263"/>
+        <a:ext cx="1265117" cy="826273"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DEB79EAA-5365-4EBA-B85F-39065B5FD785}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="14310706" y="3639243"/>
+          <a:ext cx="91440" cy="351075"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="351075"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{DF74F54D-DE88-4238-88B5-F515D2D46E17}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="13698160" y="3990318"/>
+          <a:ext cx="1316531" cy="877687"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="41910" tIns="41910" rIns="41910" bIns="41910" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="488950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
             <a:t>minecraft.html</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
           </a:br>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" kern="1200"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
             <a:t>ワールド紹介</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9115112" y="4214090"/>
-        <a:ext cx="1343336" cy="877360"/>
+        <a:off x="13723867" y="4016025"/>
+        <a:ext cx="1265117" cy="826273"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -4633,13 +5303,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4932,13 +5602,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4B6E4B-5676-44D6-BF0D-0F060E3564A9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4998,7 +5668,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -5012,7 +5682,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
@@ -5044,7 +5714,7 @@
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5054,7 +5724,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
@@ -5065,7 +5735,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5075,7 +5745,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
